--- a/SpecFramework/FeatureFiles/DataResources/TridTestDataWithAllScenarios.xlsx
+++ b/SpecFramework/FeatureFiles/DataResources/TridTestDataWithAllScenarios.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Escrow" sheetId="10" r:id="rId4"/>
     <sheet name="ClosingDisclosure" sheetId="3" r:id="rId5"/>
     <sheet name="MortgageInsurance" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId7"/>
+    <sheet name="Variable" sheetId="12" r:id="rId7"/>
     <sheet name="Export" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="168">
   <si>
     <t xml:space="preserve">30 Over 360 </t>
   </si>
@@ -475,28 +475,61 @@
     <t>NonEcrwPropCosts&gt;1Yr1</t>
   </si>
   <si>
-    <t>BalloonAmount</t>
-  </si>
-  <si>
-    <t>DisclosedTotalOfPayment</t>
-  </si>
-  <si>
-    <t>Regular P And I - Whole Term</t>
-  </si>
-  <si>
-    <t>?????????</t>
-  </si>
-  <si>
-    <t>???????</t>
-  </si>
-  <si>
-    <t>??????</t>
-  </si>
-  <si>
-    <t>?????</t>
-  </si>
-  <si>
-    <t>????????</t>
+    <t>First Term Change</t>
+  </si>
+  <si>
+    <t>Subsequent Term Change</t>
+  </si>
+  <si>
+    <t>DN Rate Cap First Adjustment</t>
+  </si>
+  <si>
+    <t>DN Rate Cap Subsequent Adjustment</t>
+  </si>
+  <si>
+    <t>UP Rate Cap First Adjustment</t>
+  </si>
+  <si>
+    <t>UP Rate Cap Subsequent Adjustment</t>
+  </si>
+  <si>
+    <t>Floor Rate</t>
+  </si>
+  <si>
+    <t>Max Rate Ever</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>P &amp; I - First Period</t>
+  </si>
+  <si>
+    <t>P &amp; I - First Adjustment Min</t>
+  </si>
+  <si>
+    <t>P &amp; I - First Adjustment Max</t>
+  </si>
+  <si>
+    <t>P &amp; I - Second Adjustment Min</t>
+  </si>
+  <si>
+    <t>P &amp; I - Second Adjustment Max</t>
+  </si>
+  <si>
+    <t>P &amp; I - Final Adjustment Min</t>
+  </si>
+  <si>
+    <t>P &amp; I - Final Adjustment Max</t>
+  </si>
+  <si>
+    <t>Total Of Payment</t>
+  </si>
+  <si>
+    <t>Balloon Amount</t>
   </si>
 </sst>
 </file>
@@ -506,7 +539,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +572,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -596,7 +637,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -762,6 +803,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -770,7 +822,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -809,12 +861,6 @@
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -883,21 +929,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -907,16 +938,51 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -934,7 +1000,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1257,74 +1368,74 @@
     <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="24" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:23" s="22" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="34" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1571,83 +1682,83 @@
     <col min="27" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="24" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:26" s="22" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="X1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="Z1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2194,83 +2305,83 @@
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="24" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:26" s="22" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="X1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="Z1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5194,10 +5305,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AV3"/>
+  <dimension ref="A1:AV25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5251,149 +5362,149 @@
     <col min="49" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:48" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AD1" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AE1" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AF1" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AG1" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="AH1" s="23" t="s">
+      <c r="AH1" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="AI1" s="23" t="s">
+      <c r="AI1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="AJ1" s="23" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="AK1" s="23" t="s">
+      <c r="AK1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="AL1" s="23" t="s">
+      <c r="AL1" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="AM1" s="23" t="s">
+      <c r="AM1" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AN1" s="23" t="s">
+      <c r="AN1" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="23" t="s">
+      <c r="AO1" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="AP1" s="23" t="s">
+      <c r="AP1" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="AQ1" s="23" t="s">
+      <c r="AQ1" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="AR1" s="23" t="s">
+      <c r="AR1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="AS1" s="16" t="s">
+      <c r="AS1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="16" t="s">
+      <c r="AT1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="16" t="s">
+      <c r="AU1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="16" t="s">
+      <c r="AV1" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5470,76 +5581,76 @@
       <c r="X2" s="3">
         <v>100</v>
       </c>
-      <c r="Y2" s="43">
+      <c r="Y2" s="36">
         <v>1083.33</v>
       </c>
-      <c r="Z2" s="43">
+      <c r="Z2" s="36">
         <v>166.66</v>
       </c>
-      <c r="AA2" s="43">
+      <c r="AA2" s="36">
         <v>166.66</v>
       </c>
-      <c r="AB2" s="43">
+      <c r="AB2" s="36">
         <v>1000</v>
       </c>
-      <c r="AC2" s="43">
+      <c r="AC2" s="36">
         <v>999.96</v>
       </c>
-      <c r="AD2" s="43">
+      <c r="AD2" s="36">
         <v>666.68</v>
       </c>
-      <c r="AE2" s="43">
+      <c r="AE2" s="36">
         <v>166.66</v>
       </c>
-      <c r="AF2" s="43">
+      <c r="AF2" s="36">
         <v>166.66</v>
       </c>
-      <c r="AG2" s="43">
+      <c r="AG2" s="36">
         <v>1000</v>
       </c>
-      <c r="AH2" s="43">
+      <c r="AH2" s="36">
         <v>999.96</v>
       </c>
-      <c r="AI2" s="43">
+      <c r="AI2" s="36">
         <v>2600</v>
       </c>
-      <c r="AJ2" s="43">
+      <c r="AJ2" s="36">
         <v>2600</v>
       </c>
-      <c r="AK2" s="43">
+      <c r="AK2" s="36">
         <v>2600</v>
       </c>
-      <c r="AL2" s="43">
+      <c r="AL2" s="36">
         <v>15600</v>
       </c>
-      <c r="AM2" s="43">
+      <c r="AM2" s="36">
         <v>15600</v>
       </c>
-      <c r="AN2" s="43">
+      <c r="AN2" s="36">
         <v>3933.28</v>
       </c>
-      <c r="AO2" s="43">
+      <c r="AO2" s="36">
         <v>2933.32</v>
       </c>
-      <c r="AP2" s="43">
+      <c r="AP2" s="36">
         <v>2933.32</v>
       </c>
-      <c r="AQ2" s="43">
+      <c r="AQ2" s="36">
         <v>17600</v>
       </c>
-      <c r="AR2" s="43">
+      <c r="AR2" s="36">
         <v>17599.919999999998</v>
       </c>
-      <c r="AS2" s="43">
+      <c r="AS2" s="36">
         <v>200</v>
       </c>
-      <c r="AT2" s="44">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="44">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="44">
+      <c r="AT2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5570,30 +5681,1445 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+    </row>
+    <row r="4" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="R5" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y5" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z5" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA5" s="52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="46">
+        <v>41000</v>
+      </c>
+      <c r="F6" s="45">
+        <v>2</v>
+      </c>
+      <c r="G6" s="45">
+        <v>2</v>
+      </c>
+      <c r="H6" s="45">
+        <v>0</v>
+      </c>
+      <c r="I6" s="45">
+        <v>1</v>
+      </c>
+      <c r="J6" s="47">
+        <v>41334</v>
+      </c>
+      <c r="K6" s="45">
+        <v>900</v>
+      </c>
+      <c r="L6" s="45">
+        <v>1</v>
+      </c>
+      <c r="M6" s="47">
+        <v>41122</v>
+      </c>
+      <c r="N6" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O6" s="45">
+        <v>1</v>
+      </c>
+      <c r="P6" s="47">
+        <v>41214</v>
+      </c>
+      <c r="Q6" s="45">
+        <v>1200</v>
+      </c>
+      <c r="R6" s="46">
+        <v>41000</v>
+      </c>
+      <c r="S6" s="53">
+        <v>40.39</v>
+      </c>
+      <c r="T6" s="45">
+        <v>3300</v>
+      </c>
+      <c r="U6" s="45">
+        <v>0</v>
+      </c>
+      <c r="V6" s="45">
+        <v>750</v>
+      </c>
+      <c r="W6" s="45">
+        <v>315.39</v>
+      </c>
+      <c r="X6" s="45">
+        <v>3300</v>
+      </c>
+      <c r="Y6" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="45">
+        <v>750</v>
+      </c>
+      <c r="AA6" s="45">
+        <v>355.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B7" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="46">
+        <v>41030</v>
+      </c>
+      <c r="F7" s="45">
+        <v>2</v>
+      </c>
+      <c r="G7" s="45">
+        <v>2</v>
+      </c>
+      <c r="H7" s="45">
+        <v>0</v>
+      </c>
+      <c r="I7" s="45">
+        <v>1</v>
+      </c>
+      <c r="J7" s="47">
+        <v>41334</v>
+      </c>
+      <c r="K7" s="45">
+        <v>900</v>
+      </c>
+      <c r="L7" s="45">
+        <v>1</v>
+      </c>
+      <c r="M7" s="47">
+        <v>41122</v>
+      </c>
+      <c r="N7" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O7" s="45">
+        <v>1</v>
+      </c>
+      <c r="P7" s="47">
+        <v>41214</v>
+      </c>
+      <c r="Q7" s="45">
+        <v>1200</v>
+      </c>
+      <c r="R7" s="46">
+        <v>41030</v>
+      </c>
+      <c r="S7" s="53">
+        <v>80.78</v>
+      </c>
+      <c r="T7" s="45">
+        <v>3300</v>
+      </c>
+      <c r="U7" s="45">
+        <v>0</v>
+      </c>
+      <c r="V7" s="53">
+        <v>790.39</v>
+      </c>
+      <c r="W7" s="53">
+        <v>630.78</v>
+      </c>
+      <c r="X7" s="53">
+        <v>3300</v>
+      </c>
+      <c r="Y7" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="53">
+        <v>790.39</v>
+      </c>
+      <c r="AA7" s="53">
+        <v>711.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B8" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="46">
+        <v>40983</v>
+      </c>
+      <c r="F8" s="45">
+        <v>2</v>
+      </c>
+      <c r="G8" s="45">
+        <v>2</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0</v>
+      </c>
+      <c r="I8" s="45">
+        <v>1</v>
+      </c>
+      <c r="J8" s="47">
+        <v>41334</v>
+      </c>
+      <c r="K8" s="45">
+        <v>900</v>
+      </c>
+      <c r="L8" s="45">
+        <v>1</v>
+      </c>
+      <c r="M8" s="47">
+        <v>41122</v>
+      </c>
+      <c r="N8" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O8" s="45">
+        <v>1</v>
+      </c>
+      <c r="P8" s="47">
+        <v>41214</v>
+      </c>
+      <c r="Q8" s="45">
+        <v>1200</v>
+      </c>
+      <c r="R8" s="46">
+        <v>40983</v>
+      </c>
+      <c r="S8" s="53">
+        <v>18.64</v>
+      </c>
+      <c r="T8" s="45">
+        <v>3300</v>
+      </c>
+      <c r="U8" s="45">
+        <v>0</v>
+      </c>
+      <c r="V8" s="53">
+        <v>798.43</v>
+      </c>
+      <c r="W8" s="53">
+        <v>145.57</v>
+      </c>
+      <c r="X8" s="53">
+        <v>3300</v>
+      </c>
+      <c r="Y8" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="53">
+        <v>798.43</v>
+      </c>
+      <c r="AA8" s="53">
+        <v>164.20999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B9" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="46">
+        <v>40983</v>
+      </c>
+      <c r="F9" s="45">
+        <v>2</v>
+      </c>
+      <c r="G9" s="45">
+        <v>2</v>
+      </c>
+      <c r="H9" s="45">
+        <v>0</v>
+      </c>
+      <c r="I9" s="45">
+        <v>1</v>
+      </c>
+      <c r="J9" s="47">
+        <v>41334</v>
+      </c>
+      <c r="K9" s="45">
+        <v>900</v>
+      </c>
+      <c r="L9" s="45">
+        <v>1</v>
+      </c>
+      <c r="M9" s="47">
+        <v>41122</v>
+      </c>
+      <c r="N9" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O9" s="45">
+        <v>1</v>
+      </c>
+      <c r="P9" s="47">
+        <v>41214</v>
+      </c>
+      <c r="Q9" s="45">
+        <v>1200</v>
+      </c>
+      <c r="R9" s="46">
+        <v>40983</v>
+      </c>
+      <c r="S9" s="53">
+        <v>20.2</v>
+      </c>
+      <c r="T9" s="45">
+        <v>3300</v>
+      </c>
+      <c r="U9" s="45">
+        <v>0</v>
+      </c>
+      <c r="V9" s="53">
+        <v>750</v>
+      </c>
+      <c r="W9" s="53">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="X9" s="53">
+        <v>3300</v>
+      </c>
+      <c r="Y9" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="53">
+        <v>750</v>
+      </c>
+      <c r="AA9" s="53">
+        <v>177.89999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B11" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="46">
+        <v>41000</v>
+      </c>
+      <c r="F11" s="45">
+        <v>2</v>
+      </c>
+      <c r="G11" s="45">
+        <v>2</v>
+      </c>
+      <c r="H11" s="45">
+        <v>0</v>
+      </c>
+      <c r="I11" s="45">
+        <v>1</v>
+      </c>
+      <c r="J11" s="47">
+        <v>41334</v>
+      </c>
+      <c r="K11" s="45">
+        <v>900</v>
+      </c>
+      <c r="L11" s="45">
+        <v>1</v>
+      </c>
+      <c r="M11" s="47">
+        <v>41122</v>
+      </c>
+      <c r="N11" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O11" s="45">
+        <v>1</v>
+      </c>
+      <c r="P11" s="47">
+        <v>41214</v>
+      </c>
+      <c r="Q11" s="45">
+        <v>1200</v>
+      </c>
+      <c r="R11" s="46">
+        <v>41000</v>
+      </c>
+      <c r="S11" s="53">
+        <v>40.39</v>
+      </c>
+      <c r="T11" s="45">
+        <v>3300</v>
+      </c>
+      <c r="U11" s="45">
+        <v>0</v>
+      </c>
+      <c r="V11" s="45">
+        <v>750</v>
+      </c>
+      <c r="W11" s="45">
+        <v>315.39</v>
+      </c>
+      <c r="X11" s="45">
+        <v>3300</v>
+      </c>
+      <c r="Y11" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="45">
+        <v>750</v>
+      </c>
+      <c r="AA11" s="45">
+        <v>355.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B12" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="46">
+        <v>41030</v>
+      </c>
+      <c r="F12" s="45">
+        <v>2</v>
+      </c>
+      <c r="G12" s="45">
+        <v>2</v>
+      </c>
+      <c r="H12" s="45">
+        <v>0</v>
+      </c>
+      <c r="I12" s="45">
+        <v>1</v>
+      </c>
+      <c r="J12" s="47">
+        <v>41334</v>
+      </c>
+      <c r="K12" s="45">
+        <v>900</v>
+      </c>
+      <c r="L12" s="45">
+        <v>1</v>
+      </c>
+      <c r="M12" s="47">
+        <v>41122</v>
+      </c>
+      <c r="N12" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O12" s="45">
+        <v>1</v>
+      </c>
+      <c r="P12" s="47">
+        <v>41214</v>
+      </c>
+      <c r="Q12" s="45">
+        <v>1200</v>
+      </c>
+      <c r="R12" s="46">
+        <v>41030</v>
+      </c>
+      <c r="S12" s="53">
+        <v>80.78</v>
+      </c>
+      <c r="T12" s="45">
+        <v>3300</v>
+      </c>
+      <c r="U12" s="45">
+        <v>0</v>
+      </c>
+      <c r="V12" s="53">
+        <v>790.39</v>
+      </c>
+      <c r="W12" s="53">
+        <v>630.78</v>
+      </c>
+      <c r="X12" s="53">
+        <v>3300</v>
+      </c>
+      <c r="Y12" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="53">
+        <v>790.39</v>
+      </c>
+      <c r="AA12" s="53">
+        <v>711.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B13" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="46">
+        <v>40983</v>
+      </c>
+      <c r="F13" s="45">
+        <v>2</v>
+      </c>
+      <c r="G13" s="45">
+        <v>2</v>
+      </c>
+      <c r="H13" s="45">
+        <v>0</v>
+      </c>
+      <c r="I13" s="45">
+        <v>1</v>
+      </c>
+      <c r="J13" s="47">
+        <v>41334</v>
+      </c>
+      <c r="K13" s="45">
+        <v>900</v>
+      </c>
+      <c r="L13" s="45">
+        <v>1</v>
+      </c>
+      <c r="M13" s="47">
+        <v>41122</v>
+      </c>
+      <c r="N13" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O13" s="45">
+        <v>1</v>
+      </c>
+      <c r="P13" s="47">
+        <v>41214</v>
+      </c>
+      <c r="Q13" s="45">
+        <v>1200</v>
+      </c>
+      <c r="R13" s="46">
+        <v>40983</v>
+      </c>
+      <c r="S13" s="53">
+        <v>18.64</v>
+      </c>
+      <c r="T13" s="45">
+        <v>3300</v>
+      </c>
+      <c r="U13" s="45">
+        <v>0</v>
+      </c>
+      <c r="V13" s="53">
+        <v>750</v>
+      </c>
+      <c r="W13" s="53">
+        <v>145.57</v>
+      </c>
+      <c r="X13" s="53">
+        <v>3300</v>
+      </c>
+      <c r="Y13" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="53">
+        <v>798.43</v>
+      </c>
+      <c r="AA13" s="53">
+        <v>164.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B14" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="46">
+        <v>40983</v>
+      </c>
+      <c r="F14" s="45">
+        <v>2</v>
+      </c>
+      <c r="G14" s="45">
+        <v>2</v>
+      </c>
+      <c r="H14" s="45">
+        <v>0</v>
+      </c>
+      <c r="I14" s="45">
+        <v>1</v>
+      </c>
+      <c r="J14" s="47">
+        <v>41334</v>
+      </c>
+      <c r="K14" s="45">
+        <v>900</v>
+      </c>
+      <c r="L14" s="45">
+        <v>1</v>
+      </c>
+      <c r="M14" s="47">
+        <v>41122</v>
+      </c>
+      <c r="N14" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O14" s="45">
+        <v>1</v>
+      </c>
+      <c r="P14" s="47">
+        <v>41214</v>
+      </c>
+      <c r="Q14" s="45">
+        <v>1200</v>
+      </c>
+      <c r="R14" s="46">
+        <v>40983</v>
+      </c>
+      <c r="S14" s="53">
+        <v>20.2</v>
+      </c>
+      <c r="T14" s="45">
+        <v>3300</v>
+      </c>
+      <c r="U14" s="45">
+        <v>0</v>
+      </c>
+      <c r="V14" s="53">
+        <v>750</v>
+      </c>
+      <c r="W14" s="53">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="X14" s="53">
+        <v>3300</v>
+      </c>
+      <c r="Y14" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="53">
+        <v>750</v>
+      </c>
+      <c r="AA14" s="53">
+        <v>177.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B16" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="46">
+        <v>41000</v>
+      </c>
+      <c r="F16" s="45">
+        <v>2</v>
+      </c>
+      <c r="G16" s="45">
+        <v>2</v>
+      </c>
+      <c r="H16" s="45">
+        <v>0</v>
+      </c>
+      <c r="I16" s="45">
+        <v>1</v>
+      </c>
+      <c r="J16" s="47">
+        <v>41334</v>
+      </c>
+      <c r="K16" s="45">
+        <v>900</v>
+      </c>
+      <c r="L16" s="45">
+        <v>1</v>
+      </c>
+      <c r="M16" s="47">
+        <v>41122</v>
+      </c>
+      <c r="N16" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O16" s="45">
+        <v>1</v>
+      </c>
+      <c r="P16" s="47">
+        <v>41214</v>
+      </c>
+      <c r="Q16" s="45">
+        <v>1200</v>
+      </c>
+      <c r="R16" s="46">
+        <v>41000</v>
+      </c>
+      <c r="S16" s="53">
+        <v>40.39</v>
+      </c>
+      <c r="T16" s="45">
+        <v>3300</v>
+      </c>
+      <c r="U16" s="45">
+        <v>0</v>
+      </c>
+      <c r="V16" s="45">
+        <v>750</v>
+      </c>
+      <c r="W16" s="45">
+        <v>315.39</v>
+      </c>
+      <c r="X16" s="45">
+        <v>3300</v>
+      </c>
+      <c r="Y16" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="45">
+        <v>750</v>
+      </c>
+      <c r="AA16" s="45">
+        <v>315.39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="46">
+        <v>41030</v>
+      </c>
+      <c r="F17" s="45">
+        <v>2</v>
+      </c>
+      <c r="G17" s="45">
+        <v>2</v>
+      </c>
+      <c r="H17" s="45">
+        <v>0</v>
+      </c>
+      <c r="I17" s="45">
+        <v>1</v>
+      </c>
+      <c r="J17" s="47">
+        <v>41334</v>
+      </c>
+      <c r="K17" s="45">
+        <v>900</v>
+      </c>
+      <c r="L17" s="45">
+        <v>1</v>
+      </c>
+      <c r="M17" s="47">
+        <v>41122</v>
+      </c>
+      <c r="N17" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O17" s="45">
+        <v>1</v>
+      </c>
+      <c r="P17" s="47">
+        <v>41214</v>
+      </c>
+      <c r="Q17" s="45">
+        <v>1200</v>
+      </c>
+      <c r="R17" s="46">
+        <v>41030</v>
+      </c>
+      <c r="S17" s="53">
+        <v>80.78</v>
+      </c>
+      <c r="T17" s="45">
+        <v>3300</v>
+      </c>
+      <c r="U17" s="45">
+        <v>0</v>
+      </c>
+      <c r="V17" s="53">
+        <v>790.39</v>
+      </c>
+      <c r="W17" s="53">
+        <v>630.78</v>
+      </c>
+      <c r="X17" s="53">
+        <v>3300</v>
+      </c>
+      <c r="Y17" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="53">
+        <v>790.39</v>
+      </c>
+      <c r="AA17" s="53">
+        <v>711.56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B18" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="46">
+        <v>40983</v>
+      </c>
+      <c r="F18" s="45">
+        <v>2</v>
+      </c>
+      <c r="G18" s="45">
+        <v>2</v>
+      </c>
+      <c r="H18" s="45">
+        <v>0</v>
+      </c>
+      <c r="I18" s="45">
+        <v>1</v>
+      </c>
+      <c r="J18" s="47">
+        <v>41334</v>
+      </c>
+      <c r="K18" s="45">
+        <v>900</v>
+      </c>
+      <c r="L18" s="45">
+        <v>1</v>
+      </c>
+      <c r="M18" s="47">
+        <v>41122</v>
+      </c>
+      <c r="N18" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O18" s="45">
+        <v>1</v>
+      </c>
+      <c r="P18" s="47">
+        <v>41214</v>
+      </c>
+      <c r="Q18" s="45">
+        <v>1200</v>
+      </c>
+      <c r="R18" s="46">
+        <v>40983</v>
+      </c>
+      <c r="S18" s="53">
+        <v>18.64</v>
+      </c>
+      <c r="T18" s="45">
+        <v>3300</v>
+      </c>
+      <c r="U18" s="45">
+        <v>0</v>
+      </c>
+      <c r="V18" s="53">
+        <v>750</v>
+      </c>
+      <c r="W18" s="53">
+        <v>145.57</v>
+      </c>
+      <c r="X18" s="53">
+        <v>3300</v>
+      </c>
+      <c r="Y18" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="53">
+        <v>798.43</v>
+      </c>
+      <c r="AA18" s="53">
+        <v>145.57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B19" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="46">
+        <v>40983</v>
+      </c>
+      <c r="F19" s="45">
+        <v>2</v>
+      </c>
+      <c r="G19" s="45">
+        <v>2</v>
+      </c>
+      <c r="H19" s="45">
+        <v>0</v>
+      </c>
+      <c r="I19" s="45">
+        <v>1</v>
+      </c>
+      <c r="J19" s="47">
+        <v>41334</v>
+      </c>
+      <c r="K19" s="45">
+        <v>900</v>
+      </c>
+      <c r="L19" s="45">
+        <v>1</v>
+      </c>
+      <c r="M19" s="47">
+        <v>41122</v>
+      </c>
+      <c r="N19" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O19" s="45">
+        <v>1</v>
+      </c>
+      <c r="P19" s="47">
+        <v>41214</v>
+      </c>
+      <c r="Q19" s="45">
+        <v>1200</v>
+      </c>
+      <c r="R19" s="46">
+        <v>40983</v>
+      </c>
+      <c r="S19" s="53">
+        <v>20.2</v>
+      </c>
+      <c r="T19" s="45">
+        <v>3300</v>
+      </c>
+      <c r="U19" s="45">
+        <v>0</v>
+      </c>
+      <c r="V19" s="53">
+        <v>750</v>
+      </c>
+      <c r="W19" s="53">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="X19" s="53">
+        <v>3300</v>
+      </c>
+      <c r="Y19" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="53">
+        <v>750</v>
+      </c>
+      <c r="AA19" s="53">
+        <v>177.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="45">
+        <v>2</v>
+      </c>
+      <c r="G21" s="45">
+        <v>2</v>
+      </c>
+      <c r="H21" s="45">
+        <v>0</v>
+      </c>
+      <c r="I21" s="45">
+        <v>1</v>
+      </c>
+      <c r="J21" s="47">
+        <v>41334</v>
+      </c>
+      <c r="K21" s="45">
+        <v>900</v>
+      </c>
+      <c r="L21" s="45">
+        <v>1</v>
+      </c>
+      <c r="M21" s="47">
+        <v>41122</v>
+      </c>
+      <c r="N21" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O21" s="45">
+        <v>1</v>
+      </c>
+      <c r="P21" s="47">
+        <v>41214</v>
+      </c>
+      <c r="Q21" s="45">
+        <v>1200</v>
+      </c>
+      <c r="R21" s="46"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="46">
+        <v>41000</v>
+      </c>
+      <c r="F22" s="45">
+        <v>2</v>
+      </c>
+      <c r="G22" s="45">
+        <v>2</v>
+      </c>
+      <c r="H22" s="45">
+        <v>0</v>
+      </c>
+      <c r="I22" s="45">
+        <v>1</v>
+      </c>
+      <c r="J22" s="47">
+        <v>41334</v>
+      </c>
+      <c r="K22" s="45">
+        <v>900</v>
+      </c>
+      <c r="L22" s="45">
+        <v>1</v>
+      </c>
+      <c r="M22" s="47">
+        <v>41122</v>
+      </c>
+      <c r="N22" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O22" s="45">
+        <v>1</v>
+      </c>
+      <c r="P22" s="47">
+        <v>41214</v>
+      </c>
+      <c r="Q22" s="45">
+        <v>1200</v>
+      </c>
+      <c r="R22" s="46">
+        <v>41000</v>
+      </c>
+      <c r="S22" s="53">
+        <v>40.39</v>
+      </c>
+      <c r="T22" s="45">
+        <v>3300</v>
+      </c>
+      <c r="U22" s="45">
+        <v>0</v>
+      </c>
+      <c r="V22" s="45">
+        <v>750</v>
+      </c>
+      <c r="W22" s="45">
+        <v>315.39</v>
+      </c>
+      <c r="X22" s="45">
+        <v>3300</v>
+      </c>
+      <c r="Y22" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="45">
+        <v>750</v>
+      </c>
+      <c r="AA22" s="45">
+        <v>315.39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="46">
+        <v>41030</v>
+      </c>
+      <c r="F23" s="45">
+        <v>2</v>
+      </c>
+      <c r="G23" s="45">
+        <v>2</v>
+      </c>
+      <c r="H23" s="45">
+        <v>0</v>
+      </c>
+      <c r="I23" s="45">
+        <v>1</v>
+      </c>
+      <c r="J23" s="47">
+        <v>41334</v>
+      </c>
+      <c r="K23" s="45">
+        <v>900</v>
+      </c>
+      <c r="L23" s="45">
+        <v>1</v>
+      </c>
+      <c r="M23" s="47">
+        <v>41122</v>
+      </c>
+      <c r="N23" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O23" s="45">
+        <v>1</v>
+      </c>
+      <c r="P23" s="47">
+        <v>41214</v>
+      </c>
+      <c r="Q23" s="45">
+        <v>1200</v>
+      </c>
+      <c r="R23" s="46">
+        <v>41030</v>
+      </c>
+      <c r="S23" s="53">
+        <v>80.78</v>
+      </c>
+      <c r="T23" s="45">
+        <v>3300</v>
+      </c>
+      <c r="U23" s="45">
+        <v>0</v>
+      </c>
+      <c r="V23" s="53">
+        <v>790.39</v>
+      </c>
+      <c r="W23" s="53">
+        <v>630.78</v>
+      </c>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="54"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="46">
+        <v>40983</v>
+      </c>
+      <c r="F25" s="45">
+        <v>2</v>
+      </c>
+      <c r="G25" s="45">
+        <v>2</v>
+      </c>
+      <c r="H25" s="45">
+        <v>0</v>
+      </c>
+      <c r="I25" s="45">
+        <v>1</v>
+      </c>
+      <c r="J25" s="47">
+        <v>41334</v>
+      </c>
+      <c r="K25" s="45">
+        <v>900</v>
+      </c>
+      <c r="L25" s="45">
+        <v>1</v>
+      </c>
+      <c r="M25" s="47">
+        <v>41122</v>
+      </c>
+      <c r="N25" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O25" s="45">
+        <v>1</v>
+      </c>
+      <c r="P25" s="47">
+        <v>41214</v>
+      </c>
+      <c r="Q25" s="45">
+        <v>1200</v>
+      </c>
+      <c r="R25" s="46">
+        <v>40983</v>
+      </c>
+      <c r="S25" s="53">
+        <v>20.2</v>
+      </c>
+      <c r="T25" s="45">
+        <v>3300</v>
+      </c>
+      <c r="U25" s="45">
+        <v>0</v>
+      </c>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5603,10 +7129,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5654,1191 +7180,1915 @@
     <col min="42" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="24" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="V1" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="W1" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="X1" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="Y1" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="Z1" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA1" s="41" t="s">
+      <c r="Z1" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA1" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AB1" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AC1" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AD1" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AE1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG1" s="41" t="s">
+      <c r="AF1" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG1" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="AH1" s="41" t="s">
+      <c r="AH1" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="41" t="s">
+      <c r="AI1" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="41" t="s">
+      <c r="AJ1" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="41" t="s">
+      <c r="AK1" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="AL1" s="41" t="s">
+      <c r="AL1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="AM1" s="41" t="s">
+      <c r="AM1" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AN1" s="41" t="s">
+      <c r="AN1" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="AO1" s="42" t="s">
+      <c r="AO1" s="77" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
-        <v>1</v>
-      </c>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="60">
+        <v>1</v>
+      </c>
+      <c r="B2" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="49" t="s">
+      <c r="C2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49">
+      <c r="G2" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56">
         <v>360</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="58">
         <v>131000</v>
       </c>
-      <c r="K2" s="49">
+      <c r="K2" s="56">
         <v>3.75</v>
       </c>
-      <c r="L2" s="53">
+      <c r="L2" s="61">
         <v>40969</v>
       </c>
-      <c r="M2" s="53">
+      <c r="M2" s="61">
         <v>40969</v>
       </c>
-      <c r="N2" s="53">
-        <v>41000</v>
-      </c>
-      <c r="O2" s="55">
+      <c r="N2" s="61">
+        <v>41000</v>
+      </c>
+      <c r="O2" s="76">
         <v>606.91</v>
       </c>
-      <c r="P2" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="49">
-        <v>0</v>
-      </c>
-      <c r="R2" s="54" t="s">
+      <c r="P2" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="56">
+        <v>605.20000000000005</v>
+      </c>
+      <c r="R2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="51">
+      <c r="S2" s="59">
         <v>606.91</v>
       </c>
-      <c r="T2" s="55">
+      <c r="T2" s="76">
         <v>40.39</v>
       </c>
-      <c r="U2" s="51">
-        <v>747.3</v>
-      </c>
-      <c r="V2" s="53">
+      <c r="U2" s="59">
+        <v>962.69</v>
+      </c>
+      <c r="V2" s="61">
         <v>43435</v>
       </c>
-      <c r="W2" s="53">
+      <c r="W2" s="61">
         <v>43070</v>
       </c>
-      <c r="X2" s="55">
-        <v>100</v>
-      </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55">
+      <c r="X2" s="57">
+        <v>750</v>
+      </c>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76">
         <v>221757.48</v>
       </c>
-      <c r="AA2" s="55">
+      <c r="AA2" s="76">
         <v>606.91</v>
       </c>
-      <c r="AB2" s="55">
+      <c r="AB2" s="76">
         <v>40.39</v>
       </c>
-      <c r="AC2" s="53">
+      <c r="AC2" s="61">
         <v>43435</v>
       </c>
-      <c r="AD2" s="51">
-        <v>747.3</v>
-      </c>
-      <c r="AE2" s="51">
+      <c r="AD2" s="59">
+        <v>962.69</v>
+      </c>
+      <c r="AE2" s="59">
         <v>3.9348000000000001</v>
       </c>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55">
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76">
         <v>221757.48</v>
       </c>
-      <c r="AH2" s="55">
+      <c r="AH2" s="76">
         <v>90757.48</v>
       </c>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55">
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76">
         <v>131000</v>
       </c>
-      <c r="AK2" s="55">
+      <c r="AK2" s="76">
+        <v>3300</v>
+      </c>
+      <c r="AL2" s="59">
+        <v>66.783100000000005</v>
+      </c>
+      <c r="AM2" s="57">
+        <v>750</v>
+      </c>
+      <c r="AN2" s="76">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="57">
+        <v>355.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="60">
+        <v>2</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="56">
+        <v>2</v>
+      </c>
+      <c r="I3" s="56">
+        <v>180</v>
+      </c>
+      <c r="J3" s="58">
+        <v>131000</v>
+      </c>
+      <c r="K3" s="56">
+        <v>3.75</v>
+      </c>
+      <c r="L3" s="61">
+        <v>40969</v>
+      </c>
+      <c r="M3" s="61">
+        <v>40969</v>
+      </c>
+      <c r="N3" s="61">
+        <v>41030</v>
+      </c>
+      <c r="O3" s="76">
+        <v>1214.82</v>
+      </c>
+      <c r="P3" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="56">
+        <v>1216.18</v>
+      </c>
+      <c r="R3" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="59">
+        <v>1214.82</v>
+      </c>
+      <c r="T3" s="76">
+        <v>80.78</v>
+      </c>
+      <c r="U3" s="59">
+        <v>1926.38</v>
+      </c>
+      <c r="V3" s="61">
+        <v>43466</v>
+      </c>
+      <c r="W3" s="61">
+        <v>43101</v>
+      </c>
+      <c r="X3" s="76">
+        <v>790.39</v>
+      </c>
+      <c r="Y3" s="76">
+        <v>1216.18</v>
+      </c>
+      <c r="Z3" s="76">
+        <v>221900.16</v>
+      </c>
+      <c r="AA3" s="76">
+        <v>1214.82</v>
+      </c>
+      <c r="AB3" s="76">
+        <v>80.78</v>
+      </c>
+      <c r="AC3" s="61">
+        <v>43466</v>
+      </c>
+      <c r="AD3" s="59">
+        <v>1926.38</v>
+      </c>
+      <c r="AE3" s="59">
+        <v>3.9323000000000001</v>
+      </c>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76">
+        <v>221900.16</v>
+      </c>
+      <c r="AH3" s="76">
+        <v>90900.160000000003</v>
+      </c>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76">
+        <v>131000</v>
+      </c>
+      <c r="AK3" s="76">
+        <v>3300</v>
+      </c>
+      <c r="AL3" s="59">
+        <v>66.922899999999998</v>
+      </c>
+      <c r="AM3" s="76">
+        <v>790.39</v>
+      </c>
+      <c r="AN3" s="76">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="76">
+        <v>711.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="60">
+        <v>3</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56">
+        <v>360</v>
+      </c>
+      <c r="J4" s="58">
+        <v>131000</v>
+      </c>
+      <c r="K4" s="56">
+        <v>3.75</v>
+      </c>
+      <c r="L4" s="61">
+        <v>40969</v>
+      </c>
+      <c r="M4" s="61">
+        <v>40969</v>
+      </c>
+      <c r="N4" s="61">
+        <v>40983</v>
+      </c>
+      <c r="O4" s="76">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="P4" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="56">
+        <v>98.13</v>
+      </c>
+      <c r="R4" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="59">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="T4" s="76">
+        <v>18.64</v>
+      </c>
+      <c r="U4" s="59">
+        <v>467.55</v>
+      </c>
+      <c r="V4" s="61">
+        <v>42943</v>
+      </c>
+      <c r="W4" s="61">
+        <v>42649</v>
+      </c>
+      <c r="X4" s="76">
+        <v>798.43</v>
+      </c>
+      <c r="Y4" s="76">
+        <v>98.13</v>
+      </c>
+      <c r="Z4" s="76">
+        <v>207480.87</v>
+      </c>
+      <c r="AA4" s="76">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="AB4" s="76">
+        <v>18.64</v>
+      </c>
+      <c r="AC4" s="61">
+        <v>42943</v>
+      </c>
+      <c r="AD4" s="59">
+        <v>467.54999999999995</v>
+      </c>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76">
+        <v>207480.87</v>
+      </c>
+      <c r="AH4" s="76">
+        <v>76480.87</v>
+      </c>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76">
+        <v>131000</v>
+      </c>
+      <c r="AK4" s="76">
+        <v>3300</v>
+      </c>
+      <c r="AL4" s="59">
+        <v>56.375999999999998</v>
+      </c>
+      <c r="AM4" s="76">
+        <v>798.43</v>
+      </c>
+      <c r="AN4" s="76">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="76">
+        <v>164.20999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="60">
+        <v>4</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56">
+        <v>360</v>
+      </c>
+      <c r="J5" s="58">
+        <v>131000</v>
+      </c>
+      <c r="K5" s="56">
+        <v>3.75</v>
+      </c>
+      <c r="L5" s="61">
+        <v>40969</v>
+      </c>
+      <c r="M5" s="61">
+        <v>40969</v>
+      </c>
+      <c r="N5" s="61">
+        <v>40983</v>
+      </c>
+      <c r="O5" s="76">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="P5" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="56">
+        <v>258.02</v>
+      </c>
+      <c r="R5" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="59">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="T5" s="76">
+        <v>20.2</v>
+      </c>
+      <c r="U5" s="59">
+        <v>481.24</v>
+      </c>
+      <c r="V5" s="61">
+        <v>43419</v>
+      </c>
+      <c r="W5" s="61">
+        <v>43054</v>
+      </c>
+      <c r="X5" s="76">
+        <v>750</v>
+      </c>
+      <c r="Y5" s="76">
+        <v>258.02</v>
+      </c>
+      <c r="Z5" s="76">
+        <v>221611.68</v>
+      </c>
+      <c r="AA5" s="76">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="AB5" s="76">
+        <v>20.2</v>
+      </c>
+      <c r="AC5" s="61">
+        <v>43419</v>
+      </c>
+      <c r="AD5" s="59">
+        <v>481.24</v>
+      </c>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="76">
+        <v>221611.68</v>
+      </c>
+      <c r="AH5" s="76">
+        <v>90611.68</v>
+      </c>
+      <c r="AI5" s="76"/>
+      <c r="AJ5" s="76">
+        <v>131000</v>
+      </c>
+      <c r="AK5" s="76">
+        <v>3300</v>
+      </c>
+      <c r="AL5" s="59">
+        <v>66.686629999999994</v>
+      </c>
+      <c r="AM5" s="76">
+        <v>750</v>
+      </c>
+      <c r="AN5" s="76">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="76">
+        <v>177.89999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="60">
+        <v>5</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56">
+        <v>360</v>
+      </c>
+      <c r="J6" s="58">
+        <v>131000</v>
+      </c>
+      <c r="K6" s="56">
+        <v>3.75</v>
+      </c>
+      <c r="L6" s="61">
+        <v>40969</v>
+      </c>
+      <c r="M6" s="61">
+        <v>40969</v>
+      </c>
+      <c r="N6" s="61">
+        <v>41000</v>
+      </c>
+      <c r="O6" s="76">
+        <v>606.70000000000005</v>
+      </c>
+      <c r="P6" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="56">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="R6" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="59">
+        <v>606.70000000000005</v>
+      </c>
+      <c r="T6" s="76">
+        <v>40.39</v>
+      </c>
+      <c r="U6" s="59">
+        <v>962.48</v>
+      </c>
+      <c r="V6" s="61">
+        <v>43435</v>
+      </c>
+      <c r="W6" s="61">
+        <v>43070</v>
+      </c>
+      <c r="X6" s="57">
+        <v>750</v>
+      </c>
+      <c r="Y6" s="76">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="Z6" s="76">
+        <v>221683.57</v>
+      </c>
+      <c r="AA6" s="76">
+        <v>606.70000000000005</v>
+      </c>
+      <c r="AB6" s="76">
+        <v>40.39</v>
+      </c>
+      <c r="AC6" s="61">
+        <v>43435</v>
+      </c>
+      <c r="AD6" s="59">
+        <v>747.09</v>
+      </c>
+      <c r="AE6" s="59">
+        <v>3.9319999999999999</v>
+      </c>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76">
+        <v>221683.57</v>
+      </c>
+      <c r="AH6" s="76">
+        <v>90683.57</v>
+      </c>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76">
+        <v>131000</v>
+      </c>
+      <c r="AK6" s="76">
+        <v>3300</v>
+      </c>
+      <c r="AL6" s="59">
+        <v>66.725999999999999</v>
+      </c>
+      <c r="AM6" s="57">
+        <v>750</v>
+      </c>
+      <c r="AN6" s="76">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="57">
+        <v>355.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="60">
+        <v>6</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="56">
+        <v>2</v>
+      </c>
+      <c r="I7" s="56">
+        <v>180</v>
+      </c>
+      <c r="J7" s="58">
+        <v>131000</v>
+      </c>
+      <c r="K7" s="56">
+        <v>3.75</v>
+      </c>
+      <c r="L7" s="61">
+        <v>40969</v>
+      </c>
+      <c r="M7" s="61">
+        <v>40969</v>
+      </c>
+      <c r="N7" s="61">
+        <v>41030</v>
+      </c>
+      <c r="O7" s="76">
+        <v>1214.4100000000001</v>
+      </c>
+      <c r="P7" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="56">
+        <v>1214.2</v>
+      </c>
+      <c r="R7" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="59">
+        <v>1214.4100000000001</v>
+      </c>
+      <c r="T7" s="76">
+        <v>80.78</v>
+      </c>
+      <c r="U7" s="59">
+        <v>1925.97</v>
+      </c>
+      <c r="V7" s="61">
+        <v>43466</v>
+      </c>
+      <c r="W7" s="61">
+        <v>43101</v>
+      </c>
+      <c r="X7" s="76">
+        <v>790.39</v>
+      </c>
+      <c r="Y7" s="76">
+        <v>1214.2</v>
+      </c>
+      <c r="Z7" s="76">
+        <v>221824.79</v>
+      </c>
+      <c r="AA7" s="76">
+        <v>1214.4100000000001</v>
+      </c>
+      <c r="AB7" s="76">
+        <v>80.78</v>
+      </c>
+      <c r="AC7" s="61">
+        <v>43405</v>
+      </c>
+      <c r="AD7" s="59">
+        <v>1495.19</v>
+      </c>
+      <c r="AE7" s="59">
+        <v>3.9295</v>
+      </c>
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="76">
+        <v>221824.79</v>
+      </c>
+      <c r="AH7" s="76">
+        <v>97868.29</v>
+      </c>
+      <c r="AI7" s="76"/>
+      <c r="AJ7" s="76">
+        <v>131000</v>
+      </c>
+      <c r="AK7" s="76">
+        <v>3300</v>
+      </c>
+      <c r="AL7" s="59">
+        <v>66.864999999999995</v>
+      </c>
+      <c r="AM7" s="76">
+        <v>790.39</v>
+      </c>
+      <c r="AN7" s="76">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="76">
+        <v>711.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="60">
+        <v>7</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56">
+        <v>360</v>
+      </c>
+      <c r="J8" s="58">
+        <v>131000</v>
+      </c>
+      <c r="K8" s="56">
+        <v>3.75</v>
+      </c>
+      <c r="L8" s="61">
+        <v>40969</v>
+      </c>
+      <c r="M8" s="61">
+        <v>40969</v>
+      </c>
+      <c r="N8" s="61">
+        <v>40983</v>
+      </c>
+      <c r="O8" s="76">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="P8" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="56">
+        <v>301.02999999999997</v>
+      </c>
+      <c r="R8" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="59">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="T8" s="76">
+        <v>18.64</v>
+      </c>
+      <c r="U8" s="59">
+        <v>467.55</v>
+      </c>
+      <c r="V8" s="61">
+        <v>42943</v>
+      </c>
+      <c r="W8" s="61">
+        <v>42649</v>
+      </c>
+      <c r="X8" s="76">
+        <v>798.43</v>
+      </c>
+      <c r="Y8" s="76">
+        <v>301.02999999999997</v>
+      </c>
+      <c r="Z8" s="76">
+        <v>207380.43</v>
+      </c>
+      <c r="AA8" s="76">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="AB8" s="76">
+        <v>18.64</v>
+      </c>
+      <c r="AC8" s="61">
+        <v>42943</v>
+      </c>
+      <c r="AD8" s="59">
+        <v>467.55</v>
+      </c>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76">
+        <v>207380.43</v>
+      </c>
+      <c r="AH8" s="76">
+        <v>76380.429999999993</v>
+      </c>
+      <c r="AI8" s="76"/>
+      <c r="AJ8" s="76">
+        <v>131000</v>
+      </c>
+      <c r="AK8" s="76">
+        <v>3300</v>
+      </c>
+      <c r="AL8" s="59">
+        <v>56.298999999999999</v>
+      </c>
+      <c r="AM8" s="76">
+        <v>798.43</v>
+      </c>
+      <c r="AN8" s="76">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="76">
+        <v>164.20999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="60">
+        <v>8</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56">
+        <v>360</v>
+      </c>
+      <c r="J9" s="58">
+        <v>131000</v>
+      </c>
+      <c r="K9" s="56">
+        <v>3.75</v>
+      </c>
+      <c r="L9" s="61">
+        <v>40969</v>
+      </c>
+      <c r="M9" s="61">
+        <v>40969</v>
+      </c>
+      <c r="N9" s="61">
+        <v>40983</v>
+      </c>
+      <c r="O9" s="76">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="P9" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="56">
+        <v>0</v>
+      </c>
+      <c r="R9" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="59">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="T9" s="76">
+        <v>20.2</v>
+      </c>
+      <c r="U9" s="59">
+        <v>481.24</v>
+      </c>
+      <c r="V9" s="61">
+        <v>43419</v>
+      </c>
+      <c r="W9" s="61">
+        <v>43054</v>
+      </c>
+      <c r="X9" s="76">
+        <v>750</v>
+      </c>
+      <c r="Y9" s="76">
+        <v>127.06</v>
+      </c>
+      <c r="Z9" s="76">
+        <v>221480.72</v>
+      </c>
+      <c r="AA9" s="76">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="AB9" s="76">
+        <v>20.2</v>
+      </c>
+      <c r="AC9" s="61">
+        <v>43419</v>
+      </c>
+      <c r="AD9" s="59">
+        <v>481.24</v>
+      </c>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76">
+        <v>221480.72</v>
+      </c>
+      <c r="AH9" s="76">
+        <v>90480.72</v>
+      </c>
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="76">
+        <v>131000</v>
+      </c>
+      <c r="AK9" s="76">
+        <v>3300</v>
+      </c>
+      <c r="AL9" s="59">
+        <v>66.586600000000004</v>
+      </c>
+      <c r="AM9" s="76">
+        <v>750</v>
+      </c>
+      <c r="AN9" s="76">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="76">
+        <v>177.89999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="60">
+        <v>9</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56">
+        <v>360</v>
+      </c>
+      <c r="J10" s="58">
+        <v>131000</v>
+      </c>
+      <c r="K10" s="56">
+        <v>3.75</v>
+      </c>
+      <c r="L10" s="61">
+        <v>40969</v>
+      </c>
+      <c r="M10" s="61">
+        <v>40969</v>
+      </c>
+      <c r="N10" s="61">
+        <v>41000</v>
+      </c>
+      <c r="O10" s="76">
+        <v>610.79</v>
+      </c>
+      <c r="P10" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="56">
+        <v>610.55999999999995</v>
+      </c>
+      <c r="R10" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="59">
+        <v>610.79</v>
+      </c>
+      <c r="T10" s="76">
+        <v>40.39</v>
+      </c>
+      <c r="U10" s="59">
+        <v>751.18</v>
+      </c>
+      <c r="V10" s="61">
+        <v>43435</v>
+      </c>
+      <c r="W10" s="61">
+        <v>43070</v>
+      </c>
+      <c r="X10" s="57">
+        <v>750</v>
+      </c>
+      <c r="Y10" s="76">
+        <v>610.55999999999995</v>
+      </c>
+      <c r="Z10" s="76">
+        <v>223155.76</v>
+      </c>
+      <c r="AA10" s="76">
+        <v>610.79</v>
+      </c>
+      <c r="AB10" s="76">
+        <v>40.39</v>
+      </c>
+      <c r="AC10" s="61">
+        <v>43435</v>
+      </c>
+      <c r="AD10" s="59">
+        <v>751.18</v>
+      </c>
+      <c r="AE10" s="59">
+        <v>3.9870999999999999</v>
+      </c>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76">
+        <v>223155.76</v>
+      </c>
+      <c r="AH10" s="76">
+        <v>92155.76</v>
+      </c>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76">
+        <v>131000</v>
+      </c>
+      <c r="AK10" s="76">
         <v>1200</v>
       </c>
-      <c r="AL2" s="51">
-        <v>66.783100000000005</v>
-      </c>
-      <c r="AM2" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="52">
+      <c r="AL10" s="59">
+        <v>67.850499999999997</v>
+      </c>
+      <c r="AM10" s="57">
+        <v>750</v>
+      </c>
+      <c r="AN10" s="76">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="57">
+        <v>355.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="60">
+        <v>10</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="56">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="I11" s="56">
+        <v>360</v>
+      </c>
+      <c r="J11" s="58">
+        <v>131000</v>
+      </c>
+      <c r="K11" s="56">
+        <v>3.75</v>
+      </c>
+      <c r="L11" s="61">
+        <v>40969</v>
+      </c>
+      <c r="M11" s="61">
+        <v>40969</v>
+      </c>
+      <c r="N11" s="61">
+        <v>41030</v>
+      </c>
+      <c r="O11" s="76">
+        <v>1222.5999999999999</v>
+      </c>
+      <c r="P11" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="56">
+        <v>1222.53</v>
+      </c>
+      <c r="R11" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" s="59">
+        <v>1222.5999999999999</v>
+      </c>
+      <c r="T11" s="76">
+        <v>80.78</v>
+      </c>
+      <c r="U11" s="59">
+        <v>1503.38</v>
+      </c>
+      <c r="V11" s="61">
+        <v>43466</v>
+      </c>
+      <c r="W11" s="61">
+        <v>43101</v>
+      </c>
+      <c r="X11" s="76">
+        <v>790.39</v>
+      </c>
+      <c r="Y11" s="76">
+        <v>1222.53</v>
+      </c>
+      <c r="Z11" s="76">
+        <v>223299.13</v>
+      </c>
+      <c r="AA11" s="76">
+        <v>1222.5999999999999</v>
+      </c>
+      <c r="AB11" s="76">
+        <v>80.78</v>
+      </c>
+      <c r="AC11" s="61">
+        <v>43435</v>
+      </c>
+      <c r="AD11" s="59">
+        <v>1503.38</v>
+      </c>
+      <c r="AE11" s="59">
+        <v>3.9847000000000001</v>
+      </c>
+      <c r="AF11" s="76"/>
+      <c r="AG11" s="76">
+        <v>223299.13</v>
+      </c>
+      <c r="AH11" s="76">
+        <v>92299.13</v>
+      </c>
+      <c r="AI11" s="76"/>
+      <c r="AJ11" s="76">
+        <v>131000</v>
+      </c>
+      <c r="AK11" s="76">
+        <v>1200</v>
+      </c>
+      <c r="AL11" s="59">
+        <v>67.991</v>
+      </c>
+      <c r="AM11" s="76">
+        <v>790.39</v>
+      </c>
+      <c r="AN11" s="76">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="76">
+        <v>711.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="60">
+        <v>11</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56">
+        <v>360</v>
+      </c>
+      <c r="J12" s="58">
+        <v>131000</v>
+      </c>
+      <c r="K12" s="56">
+        <v>3.75</v>
+      </c>
+      <c r="L12" s="61">
+        <v>40969</v>
+      </c>
+      <c r="M12" s="61">
+        <v>40969</v>
+      </c>
+      <c r="N12" s="61">
+        <v>40983</v>
+      </c>
+      <c r="O12" s="76">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="P12" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="56">
+        <v>269.13</v>
+      </c>
+      <c r="R12" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="59">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="T12" s="76">
+        <v>20.2</v>
+      </c>
+      <c r="U12" s="59">
+        <v>747.07</v>
+      </c>
+      <c r="V12" s="61">
+        <v>42985</v>
+      </c>
+      <c r="W12" s="61">
+        <v>42691</v>
+      </c>
+      <c r="X12" s="76">
+        <v>750</v>
+      </c>
+      <c r="Y12" s="76">
+        <v>269.13</v>
+      </c>
+      <c r="Z12" s="76">
+        <v>209527.83</v>
+      </c>
+      <c r="AA12" s="76">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="AB12" s="76">
+        <v>18.64</v>
+      </c>
+      <c r="AC12" s="61">
+        <v>42985</v>
+      </c>
+      <c r="AD12" s="59">
+        <v>467.55</v>
+      </c>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="76">
+        <v>209527.83</v>
+      </c>
+      <c r="AH12" s="76">
+        <v>78527.83</v>
+      </c>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="76">
+        <v>131000</v>
+      </c>
+      <c r="AK12" s="76">
+        <v>1200</v>
+      </c>
+      <c r="AL12" s="59">
+        <v>57.895899999999997</v>
+      </c>
+      <c r="AM12" s="76">
+        <v>798.43</v>
+      </c>
+      <c r="AN12" s="76">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="76">
+        <v>164.20999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="60">
+        <v>12</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56">
+        <v>360</v>
+      </c>
+      <c r="J13" s="58">
+        <v>131000</v>
+      </c>
+      <c r="K13" s="56">
+        <v>3.75</v>
+      </c>
+      <c r="L13" s="61">
+        <v>40969</v>
+      </c>
+      <c r="M13" s="61">
+        <v>40969</v>
+      </c>
+      <c r="N13" s="61">
+        <v>40983</v>
+      </c>
+      <c r="O13" s="76">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="P13" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="56">
+        <v>0</v>
+      </c>
+      <c r="R13" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="59">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="T13" s="76">
+        <v>20.2</v>
+      </c>
+      <c r="U13" s="59">
+        <v>747.07</v>
+      </c>
+      <c r="V13" s="61">
+        <v>42372</v>
+      </c>
+      <c r="W13" s="61">
+        <v>43475</v>
+      </c>
+      <c r="X13" s="76">
+        <v>750</v>
+      </c>
+      <c r="Y13" s="76">
+        <v>127.06</v>
+      </c>
+      <c r="Z13" s="76">
+        <v>224314.74</v>
+      </c>
+      <c r="AA13" s="76">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="AB13" s="76">
+        <v>20.2</v>
+      </c>
+      <c r="AC13" s="61">
+        <v>43480</v>
+      </c>
+      <c r="AD13" s="59">
+        <v>481.24</v>
+      </c>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="76">
+        <v>224314.74</v>
+      </c>
+      <c r="AH13" s="76">
+        <v>93314.74</v>
+      </c>
+      <c r="AI13" s="76"/>
+      <c r="AJ13" s="76">
+        <v>131000</v>
+      </c>
+      <c r="AK13" s="76">
+        <v>1200</v>
+      </c>
+      <c r="AL13" s="59">
+        <v>68.68835</v>
+      </c>
+      <c r="AM13" s="76">
+        <v>750</v>
+      </c>
+      <c r="AN13" s="76">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="76">
+        <v>177.89999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" s="60">
+        <v>13</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56">
+        <v>360</v>
+      </c>
+      <c r="J14" s="58">
+        <v>131000</v>
+      </c>
+      <c r="K14" s="56">
+        <v>3.75</v>
+      </c>
+      <c r="L14" s="61">
+        <v>40969</v>
+      </c>
+      <c r="M14" s="61">
+        <v>40969</v>
+      </c>
+      <c r="N14" s="61">
+        <v>41000</v>
+      </c>
+      <c r="O14" s="76">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="P14" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="56">
+        <v>0</v>
+      </c>
+      <c r="R14" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="59">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="T14" s="76">
+        <v>40.39</v>
+      </c>
+      <c r="U14" s="59">
+        <v>747.07</v>
+      </c>
+      <c r="V14" s="61">
+        <v>43405</v>
+      </c>
+      <c r="W14" s="61">
+        <v>43070</v>
+      </c>
+      <c r="X14" s="57">
+        <v>750</v>
+      </c>
+      <c r="Y14" s="76">
+        <v>610.55999999999995</v>
+      </c>
+      <c r="Z14" s="76">
+        <v>221636</v>
+      </c>
+      <c r="AA14" s="76">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="AB14" s="76">
+        <v>40.39</v>
+      </c>
+      <c r="AC14" s="61">
+        <v>43405</v>
+      </c>
+      <c r="AD14" s="59">
+        <v>747.06999999999994</v>
+      </c>
+      <c r="AE14" s="59">
+        <v>3.9297</v>
+      </c>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="76">
+        <v>221636</v>
+      </c>
+      <c r="AH14" s="76">
+        <v>90636.49</v>
+      </c>
+      <c r="AI14" s="76">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="76">
+        <v>131000</v>
+      </c>
+      <c r="AK14" s="76">
+        <v>1200</v>
+      </c>
+      <c r="AL14" s="59">
+        <v>66.72</v>
+      </c>
+      <c r="AM14" s="57">
+        <v>750</v>
+      </c>
+      <c r="AN14" s="76">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="57">
+        <v>355.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" s="60">
+        <v>14</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E15" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F15" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G15" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H15" s="56">
         <v>2</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I15" s="56">
         <v>180</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J15" s="58">
         <v>131000</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K15" s="56">
         <v>3.75</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L15" s="61">
         <v>40969</v>
       </c>
-      <c r="M3" s="53">
+      <c r="M15" s="61">
         <v>40969</v>
       </c>
-      <c r="N3" s="53">
+      <c r="N15" s="61">
         <v>41030</v>
       </c>
-      <c r="O3" s="55">
-        <v>1214.82</v>
-      </c>
-      <c r="P3" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="49">
-        <v>1216.18</v>
-      </c>
-      <c r="R3" s="54" t="s">
+      <c r="O15" s="76">
+        <v>1214.3900000000001</v>
+      </c>
+      <c r="P15" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="56">
+        <v>1213.26</v>
+      </c>
+      <c r="R15" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="51">
-        <v>1214.82</v>
-      </c>
-      <c r="T3" s="55">
+      <c r="S15" s="59">
+        <v>1214.3900000000001</v>
+      </c>
+      <c r="T15" s="76">
         <v>80.78</v>
       </c>
-      <c r="U3" s="51">
-        <v>1495.6</v>
-      </c>
-      <c r="V3" s="53">
-        <v>43466</v>
-      </c>
-      <c r="W3" s="53">
+      <c r="U15" s="59">
+        <v>1495.17</v>
+      </c>
+      <c r="V15" s="61">
+        <v>43405</v>
+      </c>
+      <c r="W15" s="61">
         <v>43101</v>
       </c>
-      <c r="X3" s="55">
-        <v>200</v>
-      </c>
-      <c r="Y3" s="55">
-        <v>1216.18</v>
-      </c>
-      <c r="Z3" s="55">
-        <v>221900.16</v>
-      </c>
-      <c r="AA3" s="55">
-        <v>1214.82</v>
-      </c>
-      <c r="AB3" s="55">
+      <c r="X15" s="76">
+        <v>790.39</v>
+      </c>
+      <c r="Y15" s="76">
+        <v>1222.53</v>
+      </c>
+      <c r="Z15" s="76">
+        <v>221820.27</v>
+      </c>
+      <c r="AA15" s="76">
+        <v>1214.3900000000001</v>
+      </c>
+      <c r="AB15" s="76">
         <v>80.78</v>
       </c>
-      <c r="AC3" s="53">
-        <v>43466</v>
-      </c>
-      <c r="AD3" s="51">
-        <v>1495.6</v>
-      </c>
-      <c r="AE3" s="51">
-        <v>3.9323000000000001</v>
-      </c>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55">
-        <v>221900.16</v>
-      </c>
-      <c r="AH3" s="55">
-        <v>90900.160000000003</v>
-      </c>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55">
+      <c r="AC15" s="61">
+        <v>43405</v>
+      </c>
+      <c r="AD15" s="59">
+        <v>747.06999999999994</v>
+      </c>
+      <c r="AE15" s="59">
+        <v>3.9293999999999998</v>
+      </c>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="76">
+        <v>221820.27</v>
+      </c>
+      <c r="AH15" s="76">
+        <v>90820.4</v>
+      </c>
+      <c r="AI15" s="76">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="76">
         <v>131000</v>
       </c>
-      <c r="AK3" s="55">
+      <c r="AK15" s="76">
         <v>1200</v>
       </c>
-      <c r="AL3" s="51">
-        <v>66.922899999999998</v>
-      </c>
-      <c r="AM3" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="55">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
+      <c r="AL15" s="59">
+        <v>66.861000000000004</v>
+      </c>
+      <c r="AM15" s="76">
+        <v>790.39</v>
+      </c>
+      <c r="AN15" s="76">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="76">
+        <v>711.56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" s="60">
+        <v>15</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="49" t="s">
+      <c r="F16" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49">
-        <v>360</v>
-      </c>
-      <c r="J4" s="50">
+      <c r="G16" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56">
+        <v>720</v>
+      </c>
+      <c r="J16" s="58">
         <v>131000</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K16" s="56">
         <v>3.75</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L16" s="61">
         <v>40969</v>
       </c>
-      <c r="M4" s="53">
+      <c r="M16" s="61">
         <v>40969</v>
       </c>
-      <c r="N4" s="53">
-        <v>41000</v>
-      </c>
-      <c r="O4" s="55">
-        <v>606.70000000000005</v>
-      </c>
-      <c r="P4" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="49">
-        <v>606.67999999999995</v>
-      </c>
-      <c r="R4" s="54" t="s">
+      <c r="N16" s="61">
+        <v>40983</v>
+      </c>
+      <c r="O16" s="76">
+        <v>303.20999999999998</v>
+      </c>
+      <c r="P16" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="56">
+        <v>0</v>
+      </c>
+      <c r="R16" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="51">
-        <v>606.70000000000005</v>
-      </c>
-      <c r="T4" s="55">
-        <v>40.39</v>
-      </c>
-      <c r="U4" s="51">
-        <v>747.09</v>
-      </c>
-      <c r="V4" s="53">
-        <v>43435</v>
-      </c>
-      <c r="W4" s="53">
-        <v>43070</v>
-      </c>
-      <c r="X4" s="55">
-        <v>100</v>
-      </c>
-      <c r="Y4" s="55">
-        <v>606.67999999999995</v>
-      </c>
-      <c r="Z4" s="55">
-        <v>221683.57</v>
-      </c>
-      <c r="AA4" s="55">
-        <v>606.70000000000005</v>
-      </c>
-      <c r="AB4" s="55">
-        <v>40.39</v>
-      </c>
-      <c r="AC4" s="53">
-        <v>43435</v>
-      </c>
-      <c r="AD4" s="51">
-        <v>747.09</v>
-      </c>
-      <c r="AE4" s="51">
-        <v>3.9319999999999999</v>
-      </c>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55">
-        <v>221683.57</v>
-      </c>
-      <c r="AH4" s="55">
-        <v>90683.57</v>
-      </c>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55">
+      <c r="S16" s="59">
+        <v>303.20999999999998</v>
+      </c>
+      <c r="T16" s="76">
+        <v>20.2</v>
+      </c>
+      <c r="U16" s="59">
+        <v>373.41</v>
+      </c>
+      <c r="V16" s="61">
+        <v>43419</v>
+      </c>
+      <c r="W16" s="61">
+        <v>43054</v>
+      </c>
+      <c r="X16" s="76">
+        <v>750</v>
+      </c>
+      <c r="Y16" s="76">
+        <v>127.06</v>
+      </c>
+      <c r="Z16" s="76">
+        <v>221563.4</v>
+      </c>
+      <c r="AA16" s="76">
+        <v>303.20999999999998</v>
+      </c>
+      <c r="AB16" s="76">
+        <v>20.2</v>
+      </c>
+      <c r="AC16" s="61">
+        <v>43419</v>
+      </c>
+      <c r="AD16" s="59">
+        <v>303.20999999999998</v>
+      </c>
+      <c r="AE16" s="59">
+        <v>3.9318</v>
+      </c>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76">
+        <v>221563.4</v>
+      </c>
+      <c r="AH16" s="76">
+        <v>90566.94</v>
+      </c>
+      <c r="AI16" s="76">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="76">
         <v>131000</v>
       </c>
-      <c r="AK4" s="55">
+      <c r="AK16" s="76">
         <v>1200</v>
       </c>
-      <c r="AL4" s="51">
-        <v>66.725999999999999</v>
-      </c>
-      <c r="AM4" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="52">
-        <v>4</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="49">
-        <v>2</v>
-      </c>
-      <c r="I5" s="49">
-        <v>180</v>
-      </c>
-      <c r="J5" s="50">
-        <v>131000</v>
-      </c>
-      <c r="K5" s="49">
-        <v>3.75</v>
-      </c>
-      <c r="L5" s="53">
-        <v>40969</v>
-      </c>
-      <c r="M5" s="53">
-        <v>40969</v>
-      </c>
-      <c r="N5" s="53">
-        <v>41030</v>
-      </c>
-      <c r="O5" s="55">
-        <v>1214.4100000000001</v>
-      </c>
-      <c r="P5" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="49">
-        <v>1214.2</v>
-      </c>
-      <c r="R5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="51">
-        <v>1214.4100000000001</v>
-      </c>
-      <c r="T5" s="55">
-        <v>80.78</v>
-      </c>
-      <c r="U5" s="51">
-        <v>1495.19</v>
-      </c>
-      <c r="V5" s="53">
-        <v>43405</v>
-      </c>
-      <c r="W5" s="53">
-        <v>43101</v>
-      </c>
-      <c r="X5" s="55">
-        <v>200</v>
-      </c>
-      <c r="Y5" s="55">
-        <v>1214.2</v>
-      </c>
-      <c r="Z5" s="55">
-        <v>221824.79</v>
-      </c>
-      <c r="AA5" s="55">
-        <v>1214.4100000000001</v>
-      </c>
-      <c r="AB5" s="55">
-        <v>80.78</v>
-      </c>
-      <c r="AC5" s="53">
-        <v>43405</v>
-      </c>
-      <c r="AD5" s="51">
-        <v>1495.19</v>
-      </c>
-      <c r="AE5" s="51">
-        <v>3.9295</v>
-      </c>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55">
-        <v>221824.79</v>
-      </c>
-      <c r="AH5" s="55">
-        <v>97868.29</v>
-      </c>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="55">
-        <v>131000</v>
-      </c>
-      <c r="AK5" s="55">
-        <v>1200</v>
-      </c>
-      <c r="AL5" s="51">
-        <v>66.864999999999995</v>
-      </c>
-      <c r="AM5" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN5" s="55"/>
-      <c r="AO5" s="55">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
-        <v>5</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49">
-        <v>360</v>
-      </c>
-      <c r="J6" s="50">
-        <v>131000</v>
-      </c>
-      <c r="K6" s="49">
-        <v>3.75</v>
-      </c>
-      <c r="L6" s="53">
-        <v>40969</v>
-      </c>
-      <c r="M6" s="53">
-        <v>40969</v>
-      </c>
-      <c r="N6" s="53">
-        <v>41000</v>
-      </c>
-      <c r="O6" s="55">
-        <v>610.79</v>
-      </c>
-      <c r="P6" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="49">
-        <v>610.55999999999995</v>
-      </c>
-      <c r="R6" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" s="51">
-        <v>610.79</v>
-      </c>
-      <c r="T6" s="55">
-        <v>40.39</v>
-      </c>
-      <c r="U6" s="51">
-        <v>751.18</v>
-      </c>
-      <c r="V6" s="53">
-        <v>43435</v>
-      </c>
-      <c r="W6" s="53">
-        <v>43070</v>
-      </c>
-      <c r="X6" s="55">
-        <v>100</v>
-      </c>
-      <c r="Y6" s="55">
-        <v>610.55999999999995</v>
-      </c>
-      <c r="Z6" s="55">
-        <v>223155.76</v>
-      </c>
-      <c r="AA6" s="55">
-        <v>610.79</v>
-      </c>
-      <c r="AB6" s="55">
-        <v>40.39</v>
-      </c>
-      <c r="AC6" s="53">
-        <v>43435</v>
-      </c>
-      <c r="AD6" s="51">
-        <v>751.18</v>
-      </c>
-      <c r="AE6" s="51">
-        <v>3.9870999999999999</v>
-      </c>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55">
-        <v>223155.76</v>
-      </c>
-      <c r="AH6" s="55">
-        <v>92155.76</v>
-      </c>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55">
-        <v>131000</v>
-      </c>
-      <c r="AK6" s="55">
-        <v>1200</v>
-      </c>
-      <c r="AL6" s="51">
-        <v>67.850499999999997</v>
-      </c>
-      <c r="AM6" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN6" s="55"/>
-      <c r="AO6" s="55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="52">
-        <v>6</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="49">
-        <v>2</v>
-      </c>
-      <c r="I7" s="49">
-        <v>360</v>
-      </c>
-      <c r="J7" s="50">
-        <v>131000</v>
-      </c>
-      <c r="K7" s="49">
-        <v>3.75</v>
-      </c>
-      <c r="L7" s="53">
-        <v>40969</v>
-      </c>
-      <c r="M7" s="53">
-        <v>40969</v>
-      </c>
-      <c r="N7" s="53">
-        <v>41030</v>
-      </c>
-      <c r="O7" s="55">
-        <v>1222.5999999999999</v>
-      </c>
-      <c r="P7" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="49">
-        <v>1222.53</v>
-      </c>
-      <c r="R7" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="51">
-        <v>1222.5999999999999</v>
-      </c>
-      <c r="T7" s="55">
-        <v>80.78</v>
-      </c>
-      <c r="U7" s="51">
-        <v>1503.38</v>
-      </c>
-      <c r="V7" s="53">
-        <v>43466</v>
-      </c>
-      <c r="W7" s="53">
-        <v>43101</v>
-      </c>
-      <c r="X7" s="55">
-        <v>200</v>
-      </c>
-      <c r="Y7" s="55">
-        <v>1222.53</v>
-      </c>
-      <c r="Z7" s="55">
-        <v>223299.13</v>
-      </c>
-      <c r="AA7" s="55">
-        <v>1222.5999999999999</v>
-      </c>
-      <c r="AB7" s="55">
-        <v>80.78</v>
-      </c>
-      <c r="AC7" s="53">
-        <v>43435</v>
-      </c>
-      <c r="AD7" s="51">
-        <v>1503.38</v>
-      </c>
-      <c r="AE7" s="51">
-        <v>3.9847000000000001</v>
-      </c>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55">
-        <v>223299.13</v>
-      </c>
-      <c r="AH7" s="55">
-        <v>92299.13</v>
-      </c>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55">
-        <v>131000</v>
-      </c>
-      <c r="AK7" s="55">
-        <v>1200</v>
-      </c>
-      <c r="AL7" s="51">
-        <v>67.991</v>
-      </c>
-      <c r="AM7" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN7" s="55"/>
-      <c r="AO7" s="55">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
-        <v>7</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49">
-        <v>360</v>
-      </c>
-      <c r="J8" s="50">
-        <v>131000</v>
-      </c>
-      <c r="K8" s="49">
-        <v>3.75</v>
-      </c>
-      <c r="L8" s="53">
-        <v>40969</v>
-      </c>
-      <c r="M8" s="53">
-        <v>40969</v>
-      </c>
-      <c r="N8" s="53">
-        <v>41000</v>
-      </c>
-      <c r="O8" s="55">
-        <v>606.67999999999995</v>
-      </c>
-      <c r="P8" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="49">
-        <v>0</v>
-      </c>
-      <c r="R8" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="51">
-        <v>606.67999999999995</v>
-      </c>
-      <c r="T8" s="55">
-        <v>40.39</v>
-      </c>
-      <c r="U8" s="51">
-        <v>747.07</v>
-      </c>
-      <c r="V8" s="53">
-        <v>43405</v>
-      </c>
-      <c r="W8" s="53">
-        <v>43070</v>
-      </c>
-      <c r="X8" s="55">
-        <v>100</v>
-      </c>
-      <c r="Y8" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="55">
-        <v>221636</v>
-      </c>
-      <c r="AA8" s="55">
-        <v>606.67999999999995</v>
-      </c>
-      <c r="AB8" s="55">
-        <v>40.39</v>
-      </c>
-      <c r="AC8" s="53">
-        <v>43405</v>
-      </c>
-      <c r="AD8" s="51">
-        <v>747.06999999999994</v>
-      </c>
-      <c r="AE8" s="51">
-        <v>3.9297</v>
-      </c>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55">
-        <v>221636</v>
-      </c>
-      <c r="AH8" s="55">
-        <v>90636.49</v>
-      </c>
-      <c r="AI8" s="55">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="55">
-        <v>131000</v>
-      </c>
-      <c r="AK8" s="55">
-        <v>1200</v>
-      </c>
-      <c r="AL8" s="51">
-        <v>66.72</v>
-      </c>
-      <c r="AM8" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="52">
-        <v>8</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="49">
-        <v>2</v>
-      </c>
-      <c r="I9" s="49">
-        <v>180</v>
-      </c>
-      <c r="J9" s="50">
-        <v>131000</v>
-      </c>
-      <c r="K9" s="49">
-        <v>3.75</v>
-      </c>
-      <c r="L9" s="53">
-        <v>40969</v>
-      </c>
-      <c r="M9" s="53">
-        <v>40969</v>
-      </c>
-      <c r="N9" s="53">
-        <v>41030</v>
-      </c>
-      <c r="O9" s="55">
-        <v>1214.3900000000001</v>
-      </c>
-      <c r="P9" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="49">
-        <v>1213.26</v>
-      </c>
-      <c r="R9" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="51">
-        <v>1214.3900000000001</v>
-      </c>
-      <c r="T9" s="55">
-        <v>80.78</v>
-      </c>
-      <c r="U9" s="51">
-        <f>1214.39+80.78+200</f>
-        <v>1495.17</v>
-      </c>
-      <c r="V9" s="53">
-        <v>43405</v>
-      </c>
-      <c r="W9" s="53">
-        <v>43101</v>
-      </c>
-      <c r="X9" s="55">
-        <v>200</v>
-      </c>
-      <c r="Y9" s="55">
-        <v>1213.26</v>
-      </c>
-      <c r="Z9" s="55">
-        <v>221820.27</v>
-      </c>
-      <c r="AA9" s="55">
-        <v>1214.3900000000001</v>
-      </c>
-      <c r="AB9" s="55">
-        <v>80.78</v>
-      </c>
-      <c r="AC9" s="53">
-        <v>43405</v>
-      </c>
-      <c r="AD9" s="51">
-        <v>747.06999999999994</v>
-      </c>
-      <c r="AE9" s="51">
-        <v>3.9293999999999998</v>
-      </c>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55">
-        <v>221820.27</v>
-      </c>
-      <c r="AH9" s="55">
-        <v>90820.4</v>
-      </c>
-      <c r="AI9" s="55">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="55">
-        <v>131000</v>
-      </c>
-      <c r="AK9" s="55">
-        <v>1200</v>
-      </c>
-      <c r="AL9" s="51">
-        <v>66.861000000000004</v>
-      </c>
-      <c r="AM9" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="55">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
-        <v>9</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49">
-        <v>720</v>
-      </c>
-      <c r="J10" s="50">
-        <v>131000</v>
-      </c>
-      <c r="K10" s="49">
-        <v>3.75</v>
-      </c>
-      <c r="L10" s="53">
-        <v>40969</v>
-      </c>
-      <c r="M10" s="53">
-        <v>40969</v>
-      </c>
-      <c r="N10" s="53">
-        <v>40983</v>
-      </c>
-      <c r="O10" s="55">
-        <v>303.20999999999998</v>
-      </c>
-      <c r="P10" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="49">
-        <v>0</v>
-      </c>
-      <c r="R10" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="51">
-        <v>303.20999999999998</v>
-      </c>
-      <c r="T10" s="55">
-        <v>20.2</v>
-      </c>
-      <c r="U10" s="51">
-        <f>323.41+50</f>
-        <v>373.41</v>
-      </c>
-      <c r="V10" s="53">
-        <v>43419</v>
-      </c>
-      <c r="W10" s="53">
-        <v>43054</v>
-      </c>
-      <c r="X10" s="55">
-        <v>50</v>
-      </c>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55">
-        <v>221563.4</v>
-      </c>
-      <c r="AA10" s="55">
-        <v>303.20999999999998</v>
-      </c>
-      <c r="AB10" s="55">
-        <v>20.2</v>
-      </c>
-      <c r="AC10" s="53">
-        <v>43419</v>
-      </c>
-      <c r="AD10" s="51">
-        <v>303.20999999999998</v>
-      </c>
-      <c r="AE10" s="51">
-        <v>3.9318</v>
-      </c>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55">
-        <v>221563.4</v>
-      </c>
-      <c r="AH10" s="55">
-        <v>90566.94</v>
-      </c>
-      <c r="AI10" s="55">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="55">
-        <v>131000</v>
-      </c>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="51">
+      <c r="AL16" s="59">
         <v>66.652000000000001</v>
       </c>
-      <c r="AM10" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN10" s="55"/>
-      <c r="AO10" s="55"/>
+      <c r="AM16" s="76">
+        <v>750</v>
+      </c>
+      <c r="AN16" s="76">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="76">
+        <v>177.89999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6870,41 +9120,41 @@
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="24" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:12" s="22" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="34" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6936,7 +9186,7 @@
       <c r="I2" s="3">
         <v>747.06999999999994</v>
       </c>
-      <c r="J2" s="45">
+      <c r="J2" s="38">
         <v>220303.13</v>
       </c>
       <c r="K2" s="3">
@@ -6970,7 +9220,7 @@
         <v>42372</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="45"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="3"/>
       <c r="L3" s="1"/>
     </row>
@@ -6998,7 +9248,7 @@
         <v>42372</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="45"/>
+      <c r="J4" s="38"/>
       <c r="K4" s="3"/>
       <c r="L4" s="1"/>
     </row>
@@ -7026,7 +9276,7 @@
         <v>42372</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="45"/>
+      <c r="J5" s="38"/>
       <c r="K5" s="3"/>
       <c r="L5" s="1"/>
     </row>
@@ -7054,7 +9304,7 @@
         <v>42372</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="45"/>
+      <c r="J6" s="38"/>
       <c r="K6" s="3"/>
       <c r="L6" s="1"/>
     </row>
@@ -7066,10 +9316,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7083,109 +9333,103 @@
     <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>155000</v>
-      </c>
-      <c r="G2" s="1">
-        <v>40.39</v>
-      </c>
-      <c r="H2" s="14">
-        <v>42372</v>
-      </c>
-      <c r="I2" s="1">
-        <v>747.06999999999994</v>
-      </c>
-      <c r="J2" s="15">
-        <v>220303.13</v>
-      </c>
-      <c r="K2" s="1">
-        <v>131000</v>
-      </c>
-      <c r="L2" s="1">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="B1" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="R1" s="41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="42">
+        <v>1</v>
+      </c>
+      <c r="B2" s="43">
+        <v>36</v>
+      </c>
+      <c r="C2" s="42">
+        <v>12</v>
+      </c>
+      <c r="D2" s="42">
+        <v>2</v>
+      </c>
+      <c r="E2" s="42">
+        <v>1</v>
+      </c>
+      <c r="F2" s="42">
+        <v>2</v>
+      </c>
+      <c r="G2" s="42">
+        <v>1</v>
+      </c>
+      <c r="H2" s="42">
+        <v>1.875</v>
+      </c>
+      <c r="I2" s="42">
+        <v>11.25</v>
+      </c>
+      <c r="J2" s="42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K2" s="42">
+        <v>2.75</v>
+      </c>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7211,26 +9455,26 @@
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="24" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" s="22" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="31" t="s">
         <v>80</v>
       </c>
     </row>

--- a/SpecFramework/FeatureFiles/DataResources/TridTestDataWithAllScenarios.xlsx
+++ b/SpecFramework/FeatureFiles/DataResources/TridTestDataWithAllScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PrepaidCharges" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="168">
   <si>
     <t xml:space="preserve">30 Over 360 </t>
   </si>
@@ -298,9 +298,6 @@
     <t>Actual Over 365 And Leap years</t>
   </si>
   <si>
-    <t>FrequencyOfPayment</t>
-  </si>
-  <si>
     <t>EscrowCalculationStartPeriodDate</t>
   </si>
   <si>
@@ -343,9 +340,6 @@
     <t>IsINSEscrowed</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>IsTaxEscrowed</t>
   </si>
   <si>
@@ -530,6 +524,12 @@
   </si>
   <si>
     <t>Balloon Amount</t>
+  </si>
+  <si>
+    <t>IsPmiEscrowed</t>
+  </si>
+  <si>
+    <t>Monthlyses</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -820,9 +820,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -929,12 +929,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -955,28 +949,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1033,19 +1006,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1343,29 +1316,29 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="28.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="2"/>
+    <col min="24" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="22" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1651,35 +1624,35 @@
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.625" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="2"/>
+    <col min="27" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="22" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1921,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -2279,29 +2252,29 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2460,13 +2433,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -2532,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -2602,7 +2575,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -2672,13 +2645,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -2820,13 +2793,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>3</v>
@@ -2892,7 +2865,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
@@ -2962,7 +2935,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
@@ -3032,13 +3005,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>3</v>
@@ -3110,7 +3083,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
@@ -3188,13 +3161,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>3</v>
@@ -3260,7 +3233,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -3330,7 +3303,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
@@ -3400,13 +3373,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>3</v>
@@ -3478,7 +3451,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
@@ -3562,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>3</v>
@@ -3768,13 +3741,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>3</v>
@@ -3849,7 +3822,7 @@
         <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>2</v>
@@ -3916,13 +3889,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>3</v>
@@ -3988,10 +3961,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>86</v>
@@ -4058,10 +4031,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>87</v>
@@ -4128,13 +4101,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>3</v>
@@ -4209,7 +4182,7 @@
         <v>89</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>2</v>
@@ -4276,13 +4249,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>3</v>
@@ -4348,10 +4321,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>86</v>
@@ -4418,10 +4391,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>87</v>
@@ -4488,13 +4461,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>3</v>
@@ -4566,10 +4539,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>2</v>
@@ -4644,13 +4617,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>3</v>
@@ -4716,10 +4689,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>86</v>
@@ -4786,10 +4759,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>87</v>
@@ -4856,13 +4829,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>3</v>
@@ -4934,10 +4907,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>2</v>
@@ -5015,10 +4988,10 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>3</v>
@@ -5087,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>86</v>
@@ -5157,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>87</v>
@@ -5224,13 +5197,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>3</v>
@@ -5305,61 +5278,61 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AV25"/>
+  <dimension ref="A1:AV16"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.25" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="48" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="43.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.375" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.125" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="40" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="31.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.375" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="40.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.125" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="39" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="31.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="29.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="31.625" style="2" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="31.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="2"/>
+    <col min="42" max="42" width="28.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="34.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5367,49 +5340,49 @@
         <v>33</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>106</v>
-      </c>
       <c r="D1" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>102</v>
       </c>
       <c r="Q1" s="19" t="s">
         <v>42</v>
@@ -5424,76 +5397,76 @@
         <v>45</v>
       </c>
       <c r="U1" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="X1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="Y1" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="Z1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AB1" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AC1" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AD1" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AE1" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AF1" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AG1" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AH1" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AI1" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ1" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK1" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL1" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="AH1" s="21" t="s">
+      <c r="AM1" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="AI1" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ1" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK1" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL1" s="21" t="s">
+      <c r="AN1" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AO1" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AN1" s="21" t="s">
+      <c r="AP1" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="21" t="s">
+      <c r="AQ1" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="AP1" s="21" t="s">
+      <c r="AR1" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="AQ1" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR1" s="21" t="s">
-        <v>127</v>
       </c>
       <c r="AS1" s="14" t="s">
         <v>42</v>
@@ -5512,1614 +5485,1075 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="13">
-        <v>42739</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="B2" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="44">
+        <v>41000</v>
+      </c>
+      <c r="F2" s="43">
         <v>2</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="43">
         <v>2</v>
       </c>
-      <c r="H2" s="3">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="H2" s="43">
+        <v>0</v>
+      </c>
+      <c r="I2" s="43">
         <v>1</v>
       </c>
-      <c r="J2" s="13">
-        <v>42829</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="J2" s="45">
+        <v>41334</v>
+      </c>
+      <c r="K2" s="43">
+        <v>900</v>
+      </c>
+      <c r="L2" s="43">
         <v>1</v>
       </c>
-      <c r="M2" s="13">
-        <v>42834</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O2" s="13">
-        <v>42829</v>
-      </c>
-      <c r="P2" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>200</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3">
-        <v>16.666599999999999</v>
-      </c>
-      <c r="U2" s="3">
-        <v>200</v>
-      </c>
-      <c r="V2" s="3">
-        <v>50</v>
-      </c>
-      <c r="W2" s="3">
-        <v>50</v>
-      </c>
-      <c r="X2" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y2" s="36">
-        <v>1083.33</v>
-      </c>
-      <c r="Z2" s="36">
-        <v>166.66</v>
-      </c>
-      <c r="AA2" s="36">
-        <v>166.66</v>
-      </c>
-      <c r="AB2" s="36">
-        <v>1000</v>
-      </c>
-      <c r="AC2" s="36">
-        <v>999.96</v>
-      </c>
-      <c r="AD2" s="36">
-        <v>666.68</v>
-      </c>
-      <c r="AE2" s="36">
-        <v>166.66</v>
-      </c>
-      <c r="AF2" s="36">
-        <v>166.66</v>
-      </c>
-      <c r="AG2" s="36">
-        <v>1000</v>
-      </c>
-      <c r="AH2" s="36">
-        <v>999.96</v>
-      </c>
-      <c r="AI2" s="36">
-        <v>2600</v>
-      </c>
-      <c r="AJ2" s="36">
-        <v>2600</v>
-      </c>
-      <c r="AK2" s="36">
-        <v>2600</v>
-      </c>
-      <c r="AL2" s="36">
-        <v>15600</v>
-      </c>
-      <c r="AM2" s="36">
-        <v>15600</v>
-      </c>
-      <c r="AN2" s="36">
-        <v>3933.28</v>
-      </c>
-      <c r="AO2" s="36">
-        <v>2933.32</v>
-      </c>
-      <c r="AP2" s="36">
-        <v>2933.32</v>
-      </c>
-      <c r="AQ2" s="36">
-        <v>17600</v>
-      </c>
-      <c r="AR2" s="36">
-        <v>17599.919999999998</v>
-      </c>
-      <c r="AS2" s="36">
-        <v>200</v>
-      </c>
-      <c r="AT2" s="37">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="37">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="37">
-        <v>0</v>
+      <c r="M2" s="45">
+        <v>41122</v>
+      </c>
+      <c r="N2" s="43">
+        <v>1200</v>
+      </c>
+      <c r="O2" s="44">
+        <v>41000</v>
+      </c>
+      <c r="P2" s="46">
+        <v>40.39</v>
+      </c>
+      <c r="Q2" s="43">
+        <v>3300</v>
+      </c>
+      <c r="R2" s="43">
+        <v>0</v>
+      </c>
+      <c r="S2" s="43">
+        <v>750</v>
+      </c>
+      <c r="T2" s="43">
+        <v>315.39</v>
+      </c>
+      <c r="U2" s="43">
+        <v>3300</v>
+      </c>
+      <c r="V2" s="43">
+        <v>0</v>
+      </c>
+      <c r="W2" s="43">
+        <v>750</v>
+      </c>
+      <c r="X2" s="43">
+        <v>355.78</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-    </row>
-    <row r="4" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:48" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>106</v>
+      <c r="B3" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="44">
+        <v>41030</v>
+      </c>
+      <c r="F3" s="43">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43">
+        <v>2</v>
+      </c>
+      <c r="H3" s="43">
+        <v>0</v>
+      </c>
+      <c r="I3" s="43">
+        <v>1</v>
+      </c>
+      <c r="J3" s="45">
+        <v>41334</v>
+      </c>
+      <c r="K3" s="43">
+        <v>900</v>
+      </c>
+      <c r="L3" s="43">
+        <v>1</v>
+      </c>
+      <c r="M3" s="45">
+        <v>41122</v>
+      </c>
+      <c r="N3" s="43">
+        <v>1200</v>
+      </c>
+      <c r="O3" s="44">
+        <v>41030</v>
+      </c>
+      <c r="P3" s="46">
+        <v>80.78</v>
+      </c>
+      <c r="Q3" s="43">
+        <v>3300</v>
+      </c>
+      <c r="R3" s="43">
+        <v>0</v>
+      </c>
+      <c r="S3" s="46">
+        <v>790.39</v>
+      </c>
+      <c r="T3" s="46">
+        <v>630.78</v>
+      </c>
+      <c r="U3" s="46">
+        <v>3300</v>
+      </c>
+      <c r="V3" s="43">
+        <v>0</v>
+      </c>
+      <c r="W3" s="46">
+        <v>790.39</v>
+      </c>
+      <c r="X3" s="46">
+        <v>711.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="44">
+        <v>40983</v>
+      </c>
+      <c r="F4" s="43">
+        <v>2</v>
+      </c>
+      <c r="G4" s="43">
+        <v>2</v>
+      </c>
+      <c r="H4" s="43">
+        <v>0</v>
+      </c>
+      <c r="I4" s="43">
+        <v>1</v>
+      </c>
+      <c r="J4" s="45">
+        <v>41334</v>
+      </c>
+      <c r="K4" s="43">
+        <v>900</v>
+      </c>
+      <c r="L4" s="43">
+        <v>1</v>
+      </c>
+      <c r="M4" s="45">
+        <v>41122</v>
+      </c>
+      <c r="N4" s="43">
+        <v>1200</v>
+      </c>
+      <c r="O4" s="44">
+        <v>40983</v>
+      </c>
+      <c r="P4" s="46">
+        <v>18.64</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>3300</v>
+      </c>
+      <c r="R4" s="43">
+        <v>0</v>
+      </c>
+      <c r="S4" s="46">
+        <v>798.43</v>
+      </c>
+      <c r="T4" s="46">
+        <v>145.57</v>
+      </c>
+      <c r="U4" s="46">
+        <v>3300</v>
+      </c>
+      <c r="V4" s="43">
+        <v>0</v>
+      </c>
+      <c r="W4" s="46">
+        <v>798.43</v>
+      </c>
+      <c r="X4" s="46">
+        <v>164.20999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="P5" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="R5" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="S5" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="T5" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="V5" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="W5" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="X5" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y5" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z5" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA5" s="52" t="s">
-        <v>110</v>
+        <v>79</v>
+      </c>
+      <c r="E5" s="44">
+        <v>40983</v>
+      </c>
+      <c r="F5" s="43">
+        <v>2</v>
+      </c>
+      <c r="G5" s="43">
+        <v>2</v>
+      </c>
+      <c r="H5" s="43">
+        <v>0</v>
+      </c>
+      <c r="I5" s="43">
+        <v>1</v>
+      </c>
+      <c r="J5" s="45">
+        <v>41334</v>
+      </c>
+      <c r="K5" s="43">
+        <v>900</v>
+      </c>
+      <c r="L5" s="43">
+        <v>1</v>
+      </c>
+      <c r="M5" s="45">
+        <v>41122</v>
+      </c>
+      <c r="N5" s="43">
+        <v>1200</v>
+      </c>
+      <c r="O5" s="44">
+        <v>40983</v>
+      </c>
+      <c r="P5" s="46">
+        <v>20.2</v>
+      </c>
+      <c r="Q5" s="43">
+        <v>3300</v>
+      </c>
+      <c r="R5" s="43">
+        <v>0</v>
+      </c>
+      <c r="S5" s="46">
+        <v>750</v>
+      </c>
+      <c r="T5" s="46">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="U5" s="46">
+        <v>3300</v>
+      </c>
+      <c r="V5" s="43">
+        <v>0</v>
+      </c>
+      <c r="W5" s="46">
+        <v>750</v>
+      </c>
+      <c r="X5" s="46">
+        <v>177.89999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="44">
+        <v>41000</v>
+      </c>
+      <c r="F6" s="43">
         <v>2</v>
       </c>
-      <c r="E6" s="46">
-        <v>41000</v>
-      </c>
-      <c r="F6" s="45">
+      <c r="G6" s="43">
         <v>2</v>
       </c>
-      <c r="G6" s="45">
+      <c r="H6" s="43">
+        <v>0</v>
+      </c>
+      <c r="I6" s="43">
+        <v>1</v>
+      </c>
+      <c r="J6" s="45">
+        <v>41334</v>
+      </c>
+      <c r="K6" s="43">
+        <v>900</v>
+      </c>
+      <c r="L6" s="43">
+        <v>1</v>
+      </c>
+      <c r="M6" s="45">
+        <v>41122</v>
+      </c>
+      <c r="N6" s="43">
+        <v>1200</v>
+      </c>
+      <c r="O6" s="44">
+        <v>41000</v>
+      </c>
+      <c r="P6" s="46">
+        <v>40.39</v>
+      </c>
+      <c r="Q6" s="43">
+        <v>3300</v>
+      </c>
+      <c r="R6" s="43">
+        <v>0</v>
+      </c>
+      <c r="S6" s="43">
+        <v>750</v>
+      </c>
+      <c r="T6" s="43">
+        <v>315.39</v>
+      </c>
+      <c r="U6" s="43">
+        <v>3300</v>
+      </c>
+      <c r="V6" s="43">
+        <v>0</v>
+      </c>
+      <c r="W6" s="43">
+        <v>750</v>
+      </c>
+      <c r="X6" s="43">
+        <v>355.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="44">
+        <v>41030</v>
+      </c>
+      <c r="F7" s="43">
         <v>2</v>
       </c>
-      <c r="H6" s="45">
-        <v>0</v>
-      </c>
-      <c r="I6" s="45">
+      <c r="G7" s="43">
+        <v>2</v>
+      </c>
+      <c r="H7" s="43">
+        <v>0</v>
+      </c>
+      <c r="I7" s="43">
         <v>1</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J7" s="45">
         <v>41334</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K7" s="43">
         <v>900</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L7" s="43">
         <v>1</v>
       </c>
-      <c r="M6" s="47">
+      <c r="M7" s="45">
         <v>41122</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N7" s="43">
         <v>1200</v>
       </c>
-      <c r="O6" s="45">
+      <c r="O7" s="44">
+        <v>41030</v>
+      </c>
+      <c r="P7" s="46">
+        <v>80.78</v>
+      </c>
+      <c r="Q7" s="43">
+        <v>3300</v>
+      </c>
+      <c r="R7" s="43">
+        <v>0</v>
+      </c>
+      <c r="S7" s="46">
+        <v>790.39</v>
+      </c>
+      <c r="T7" s="46">
+        <v>630.78</v>
+      </c>
+      <c r="U7" s="46">
+        <v>3300</v>
+      </c>
+      <c r="V7" s="43">
+        <v>0</v>
+      </c>
+      <c r="W7" s="46">
+        <v>790.39</v>
+      </c>
+      <c r="X7" s="46">
+        <v>711.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="44">
+        <v>40983</v>
+      </c>
+      <c r="F8" s="43">
+        <v>2</v>
+      </c>
+      <c r="G8" s="43">
+        <v>2</v>
+      </c>
+      <c r="H8" s="43">
+        <v>0</v>
+      </c>
+      <c r="I8" s="43">
         <v>1</v>
       </c>
-      <c r="P6" s="47">
-        <v>41214</v>
-      </c>
-      <c r="Q6" s="45">
+      <c r="J8" s="45">
+        <v>41334</v>
+      </c>
+      <c r="K8" s="43">
+        <v>900</v>
+      </c>
+      <c r="L8" s="43">
+        <v>1</v>
+      </c>
+      <c r="M8" s="45">
+        <v>41122</v>
+      </c>
+      <c r="N8" s="43">
         <v>1200</v>
       </c>
-      <c r="R6" s="46">
-        <v>41000</v>
-      </c>
-      <c r="S6" s="53">
+      <c r="O8" s="44">
+        <v>40983</v>
+      </c>
+      <c r="P8" s="46">
+        <v>18.64</v>
+      </c>
+      <c r="Q8" s="43">
+        <v>3300</v>
+      </c>
+      <c r="R8" s="43">
+        <v>0</v>
+      </c>
+      <c r="S8" s="46">
+        <v>750</v>
+      </c>
+      <c r="T8" s="46">
+        <v>145.57</v>
+      </c>
+      <c r="U8" s="46">
+        <v>3300</v>
+      </c>
+      <c r="V8" s="43">
+        <v>0</v>
+      </c>
+      <c r="W8" s="46">
+        <v>798.43</v>
+      </c>
+      <c r="X8" s="46">
+        <v>164.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="44">
+        <v>40983</v>
+      </c>
+      <c r="F9" s="43">
+        <v>2</v>
+      </c>
+      <c r="G9" s="43">
+        <v>2</v>
+      </c>
+      <c r="H9" s="43">
+        <v>0</v>
+      </c>
+      <c r="I9" s="43">
+        <v>1</v>
+      </c>
+      <c r="J9" s="45">
+        <v>41334</v>
+      </c>
+      <c r="K9" s="43">
+        <v>900</v>
+      </c>
+      <c r="L9" s="43">
+        <v>1</v>
+      </c>
+      <c r="M9" s="45">
+        <v>41122</v>
+      </c>
+      <c r="N9" s="43">
+        <v>1200</v>
+      </c>
+      <c r="O9" s="44">
+        <v>40983</v>
+      </c>
+      <c r="P9" s="46">
+        <v>20.2</v>
+      </c>
+      <c r="Q9" s="43">
+        <v>3300</v>
+      </c>
+      <c r="R9" s="43">
+        <v>0</v>
+      </c>
+      <c r="S9" s="46">
+        <v>750</v>
+      </c>
+      <c r="T9" s="46">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="U9" s="46">
+        <v>3300</v>
+      </c>
+      <c r="V9" s="43">
+        <v>0</v>
+      </c>
+      <c r="W9" s="46">
+        <v>750</v>
+      </c>
+      <c r="X9" s="46">
+        <v>177.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="44">
+        <v>41000</v>
+      </c>
+      <c r="F10" s="43">
+        <v>2</v>
+      </c>
+      <c r="G10" s="43">
+        <v>2</v>
+      </c>
+      <c r="H10" s="43">
+        <v>0</v>
+      </c>
+      <c r="I10" s="43">
+        <v>1</v>
+      </c>
+      <c r="J10" s="45">
+        <v>41334</v>
+      </c>
+      <c r="K10" s="43">
+        <v>900</v>
+      </c>
+      <c r="L10" s="43">
+        <v>1</v>
+      </c>
+      <c r="M10" s="45">
+        <v>41122</v>
+      </c>
+      <c r="N10" s="43">
+        <v>1200</v>
+      </c>
+      <c r="O10" s="44">
+        <v>41000</v>
+      </c>
+      <c r="P10" s="46">
         <v>40.39</v>
       </c>
-      <c r="T6" s="45">
+      <c r="Q10" s="43">
         <v>3300</v>
       </c>
-      <c r="U6" s="45">
-        <v>0</v>
-      </c>
-      <c r="V6" s="45">
+      <c r="R10" s="43">
+        <v>0</v>
+      </c>
+      <c r="S10" s="43">
         <v>750</v>
       </c>
-      <c r="W6" s="45">
+      <c r="T10" s="43">
         <v>315.39</v>
       </c>
-      <c r="X6" s="45">
+      <c r="U10" s="43">
         <v>3300</v>
       </c>
-      <c r="Y6" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="45">
+      <c r="V10" s="43">
+        <v>0</v>
+      </c>
+      <c r="W10" s="43">
         <v>750</v>
       </c>
-      <c r="AA6" s="45">
-        <v>355.78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="X10" s="43">
+        <v>315.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C11" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="46">
+      <c r="D11" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="44">
         <v>41030</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F11" s="43">
         <v>2</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G11" s="43">
         <v>2</v>
       </c>
-      <c r="H7" s="45">
-        <v>0</v>
-      </c>
-      <c r="I7" s="45">
+      <c r="H11" s="43">
+        <v>0</v>
+      </c>
+      <c r="I11" s="43">
         <v>1</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J11" s="45">
         <v>41334</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K11" s="43">
         <v>900</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L11" s="43">
         <v>1</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M11" s="45">
         <v>41122</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N11" s="43">
         <v>1200</v>
       </c>
-      <c r="O7" s="45">
+      <c r="O11" s="44">
+        <v>41030</v>
+      </c>
+      <c r="P11" s="46">
+        <v>80.78</v>
+      </c>
+      <c r="Q11" s="43">
+        <v>3300</v>
+      </c>
+      <c r="R11" s="43">
+        <v>0</v>
+      </c>
+      <c r="S11" s="46">
+        <v>790.39</v>
+      </c>
+      <c r="T11" s="46">
+        <v>630.78</v>
+      </c>
+      <c r="U11" s="46">
+        <v>3300</v>
+      </c>
+      <c r="V11" s="43">
+        <v>0</v>
+      </c>
+      <c r="W11" s="46">
+        <v>790.39</v>
+      </c>
+      <c r="X11" s="46">
+        <v>711.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="44">
+        <v>40983</v>
+      </c>
+      <c r="F12" s="43">
+        <v>2</v>
+      </c>
+      <c r="G12" s="43">
+        <v>2</v>
+      </c>
+      <c r="H12" s="43">
+        <v>0</v>
+      </c>
+      <c r="I12" s="43">
         <v>1</v>
       </c>
-      <c r="P7" s="47">
-        <v>41214</v>
-      </c>
-      <c r="Q7" s="45">
+      <c r="J12" s="45">
+        <v>41334</v>
+      </c>
+      <c r="K12" s="43">
+        <v>900</v>
+      </c>
+      <c r="L12" s="43">
+        <v>1</v>
+      </c>
+      <c r="M12" s="45">
+        <v>41122</v>
+      </c>
+      <c r="N12" s="43">
         <v>1200</v>
       </c>
-      <c r="R7" s="46">
+      <c r="O12" s="44">
+        <v>40983</v>
+      </c>
+      <c r="P12" s="46">
+        <v>18.64</v>
+      </c>
+      <c r="Q12" s="43">
+        <v>3300</v>
+      </c>
+      <c r="R12" s="43">
+        <v>0</v>
+      </c>
+      <c r="S12" s="46">
+        <v>750</v>
+      </c>
+      <c r="T12" s="46">
+        <v>145.57</v>
+      </c>
+      <c r="U12" s="46">
+        <v>3300</v>
+      </c>
+      <c r="V12" s="43">
+        <v>0</v>
+      </c>
+      <c r="W12" s="46">
+        <v>798.43</v>
+      </c>
+      <c r="X12" s="46">
+        <v>145.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="44">
+        <v>40983</v>
+      </c>
+      <c r="F13" s="43">
+        <v>2</v>
+      </c>
+      <c r="G13" s="43">
+        <v>2</v>
+      </c>
+      <c r="H13" s="43">
+        <v>0</v>
+      </c>
+      <c r="I13" s="43">
+        <v>1</v>
+      </c>
+      <c r="J13" s="45">
+        <v>41334</v>
+      </c>
+      <c r="K13" s="43">
+        <v>900</v>
+      </c>
+      <c r="L13" s="43">
+        <v>1</v>
+      </c>
+      <c r="M13" s="45">
+        <v>41122</v>
+      </c>
+      <c r="N13" s="43">
+        <v>1200</v>
+      </c>
+      <c r="O13" s="44">
+        <v>40983</v>
+      </c>
+      <c r="P13" s="46">
+        <v>20.2</v>
+      </c>
+      <c r="Q13" s="43">
+        <v>3300</v>
+      </c>
+      <c r="R13" s="43">
+        <v>0</v>
+      </c>
+      <c r="S13" s="46">
+        <v>750</v>
+      </c>
+      <c r="T13" s="46">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="U13" s="46">
+        <v>3300</v>
+      </c>
+      <c r="V13" s="43">
+        <v>0</v>
+      </c>
+      <c r="W13" s="46">
+        <v>750</v>
+      </c>
+      <c r="X13" s="46">
+        <v>177.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="44">
+        <v>41000</v>
+      </c>
+      <c r="F14" s="43">
+        <v>2</v>
+      </c>
+      <c r="G14" s="43">
+        <v>2</v>
+      </c>
+      <c r="H14" s="43">
+        <v>0</v>
+      </c>
+      <c r="I14" s="43">
+        <v>1</v>
+      </c>
+      <c r="J14" s="45">
+        <v>41334</v>
+      </c>
+      <c r="K14" s="43">
+        <v>900</v>
+      </c>
+      <c r="L14" s="43">
+        <v>1</v>
+      </c>
+      <c r="M14" s="45">
+        <v>41122</v>
+      </c>
+      <c r="N14" s="43">
+        <v>1200</v>
+      </c>
+      <c r="O14" s="44">
+        <v>41000</v>
+      </c>
+      <c r="P14" s="46">
+        <v>40.39</v>
+      </c>
+      <c r="Q14" s="43">
+        <v>3300</v>
+      </c>
+      <c r="R14" s="43">
+        <v>0</v>
+      </c>
+      <c r="S14" s="43">
+        <v>750</v>
+      </c>
+      <c r="T14" s="43">
+        <v>315.39</v>
+      </c>
+      <c r="U14" s="43">
+        <v>3300</v>
+      </c>
+      <c r="V14" s="43">
+        <v>0</v>
+      </c>
+      <c r="W14" s="43">
+        <v>750</v>
+      </c>
+      <c r="X14" s="43">
+        <v>315.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="44">
         <v>41030</v>
       </c>
-      <c r="S7" s="53">
+      <c r="F15" s="43">
+        <v>2</v>
+      </c>
+      <c r="G15" s="43">
+        <v>2</v>
+      </c>
+      <c r="H15" s="43">
+        <v>0</v>
+      </c>
+      <c r="I15" s="43">
+        <v>1</v>
+      </c>
+      <c r="J15" s="45">
+        <v>41334</v>
+      </c>
+      <c r="K15" s="43">
+        <v>900</v>
+      </c>
+      <c r="L15" s="43">
+        <v>1</v>
+      </c>
+      <c r="M15" s="45">
+        <v>41122</v>
+      </c>
+      <c r="N15" s="43">
+        <v>1200</v>
+      </c>
+      <c r="O15" s="44">
+        <v>41030</v>
+      </c>
+      <c r="P15" s="46">
         <v>80.78</v>
       </c>
-      <c r="T7" s="45">
+      <c r="Q15" s="43">
         <v>3300</v>
       </c>
-      <c r="U7" s="45">
-        <v>0</v>
-      </c>
-      <c r="V7" s="53">
+      <c r="R15" s="43">
+        <v>0</v>
+      </c>
+      <c r="S15" s="46">
         <v>790.39</v>
       </c>
-      <c r="W7" s="53">
+      <c r="T15" s="46">
         <v>630.78</v>
       </c>
-      <c r="X7" s="53">
+      <c r="U15" s="46"/>
+      <c r="V15" s="43">
+        <v>0</v>
+      </c>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="44">
+        <v>40983</v>
+      </c>
+      <c r="F16" s="43">
+        <v>2</v>
+      </c>
+      <c r="G16" s="43">
+        <v>2</v>
+      </c>
+      <c r="H16" s="43">
+        <v>0</v>
+      </c>
+      <c r="I16" s="43">
+        <v>1</v>
+      </c>
+      <c r="J16" s="45">
+        <v>41334</v>
+      </c>
+      <c r="K16" s="43">
+        <v>900</v>
+      </c>
+      <c r="L16" s="43">
+        <v>1</v>
+      </c>
+      <c r="M16" s="45">
+        <v>41122</v>
+      </c>
+      <c r="N16" s="43">
+        <v>1200</v>
+      </c>
+      <c r="O16" s="44">
+        <v>40983</v>
+      </c>
+      <c r="P16" s="46">
+        <v>20.2</v>
+      </c>
+      <c r="Q16" s="43">
         <v>3300</v>
       </c>
-      <c r="Y7" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="53">
-        <v>790.39</v>
-      </c>
-      <c r="AA7" s="53">
-        <v>711.56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B8" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="46">
-        <v>40983</v>
-      </c>
-      <c r="F8" s="45">
-        <v>2</v>
-      </c>
-      <c r="G8" s="45">
-        <v>2</v>
-      </c>
-      <c r="H8" s="45">
-        <v>0</v>
-      </c>
-      <c r="I8" s="45">
-        <v>1</v>
-      </c>
-      <c r="J8" s="47">
-        <v>41334</v>
-      </c>
-      <c r="K8" s="45">
-        <v>900</v>
-      </c>
-      <c r="L8" s="45">
-        <v>1</v>
-      </c>
-      <c r="M8" s="47">
-        <v>41122</v>
-      </c>
-      <c r="N8" s="45">
-        <v>1200</v>
-      </c>
-      <c r="O8" s="45">
-        <v>1</v>
-      </c>
-      <c r="P8" s="47">
-        <v>41214</v>
-      </c>
-      <c r="Q8" s="45">
-        <v>1200</v>
-      </c>
-      <c r="R8" s="46">
-        <v>40983</v>
-      </c>
-      <c r="S8" s="53">
-        <v>18.64</v>
-      </c>
-      <c r="T8" s="45">
-        <v>3300</v>
-      </c>
-      <c r="U8" s="45">
-        <v>0</v>
-      </c>
-      <c r="V8" s="53">
-        <v>798.43</v>
-      </c>
-      <c r="W8" s="53">
-        <v>145.57</v>
-      </c>
-      <c r="X8" s="53">
-        <v>3300</v>
-      </c>
-      <c r="Y8" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="53">
-        <v>798.43</v>
-      </c>
-      <c r="AA8" s="53">
-        <v>164.20999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="46">
-        <v>40983</v>
-      </c>
-      <c r="F9" s="45">
-        <v>2</v>
-      </c>
-      <c r="G9" s="45">
-        <v>2</v>
-      </c>
-      <c r="H9" s="45">
-        <v>0</v>
-      </c>
-      <c r="I9" s="45">
-        <v>1</v>
-      </c>
-      <c r="J9" s="47">
-        <v>41334</v>
-      </c>
-      <c r="K9" s="45">
-        <v>900</v>
-      </c>
-      <c r="L9" s="45">
-        <v>1</v>
-      </c>
-      <c r="M9" s="47">
-        <v>41122</v>
-      </c>
-      <c r="N9" s="45">
-        <v>1200</v>
-      </c>
-      <c r="O9" s="45">
-        <v>1</v>
-      </c>
-      <c r="P9" s="47">
-        <v>41214</v>
-      </c>
-      <c r="Q9" s="45">
-        <v>1200</v>
-      </c>
-      <c r="R9" s="46">
-        <v>40983</v>
-      </c>
-      <c r="S9" s="53">
-        <v>20.2</v>
-      </c>
-      <c r="T9" s="45">
-        <v>3300</v>
-      </c>
-      <c r="U9" s="45">
-        <v>0</v>
-      </c>
-      <c r="V9" s="53">
-        <v>750</v>
-      </c>
-      <c r="W9" s="53">
-        <v>157.69999999999999</v>
-      </c>
-      <c r="X9" s="53">
-        <v>3300</v>
-      </c>
-      <c r="Y9" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="53">
-        <v>750</v>
-      </c>
-      <c r="AA9" s="53">
-        <v>177.89999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B11" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="46">
-        <v>41000</v>
-      </c>
-      <c r="F11" s="45">
-        <v>2</v>
-      </c>
-      <c r="G11" s="45">
-        <v>2</v>
-      </c>
-      <c r="H11" s="45">
-        <v>0</v>
-      </c>
-      <c r="I11" s="45">
-        <v>1</v>
-      </c>
-      <c r="J11" s="47">
-        <v>41334</v>
-      </c>
-      <c r="K11" s="45">
-        <v>900</v>
-      </c>
-      <c r="L11" s="45">
-        <v>1</v>
-      </c>
-      <c r="M11" s="47">
-        <v>41122</v>
-      </c>
-      <c r="N11" s="45">
-        <v>1200</v>
-      </c>
-      <c r="O11" s="45">
-        <v>1</v>
-      </c>
-      <c r="P11" s="47">
-        <v>41214</v>
-      </c>
-      <c r="Q11" s="45">
-        <v>1200</v>
-      </c>
-      <c r="R11" s="46">
-        <v>41000</v>
-      </c>
-      <c r="S11" s="53">
-        <v>40.39</v>
-      </c>
-      <c r="T11" s="45">
-        <v>3300</v>
-      </c>
-      <c r="U11" s="45">
-        <v>0</v>
-      </c>
-      <c r="V11" s="45">
-        <v>750</v>
-      </c>
-      <c r="W11" s="45">
-        <v>315.39</v>
-      </c>
-      <c r="X11" s="45">
-        <v>3300</v>
-      </c>
-      <c r="Y11" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="45">
-        <v>750</v>
-      </c>
-      <c r="AA11" s="45">
-        <v>355.79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="46">
-        <v>41030</v>
-      </c>
-      <c r="F12" s="45">
-        <v>2</v>
-      </c>
-      <c r="G12" s="45">
-        <v>2</v>
-      </c>
-      <c r="H12" s="45">
-        <v>0</v>
-      </c>
-      <c r="I12" s="45">
-        <v>1</v>
-      </c>
-      <c r="J12" s="47">
-        <v>41334</v>
-      </c>
-      <c r="K12" s="45">
-        <v>900</v>
-      </c>
-      <c r="L12" s="45">
-        <v>1</v>
-      </c>
-      <c r="M12" s="47">
-        <v>41122</v>
-      </c>
-      <c r="N12" s="45">
-        <v>1200</v>
-      </c>
-      <c r="O12" s="45">
-        <v>1</v>
-      </c>
-      <c r="P12" s="47">
-        <v>41214</v>
-      </c>
-      <c r="Q12" s="45">
-        <v>1200</v>
-      </c>
-      <c r="R12" s="46">
-        <v>41030</v>
-      </c>
-      <c r="S12" s="53">
-        <v>80.78</v>
-      </c>
-      <c r="T12" s="45">
-        <v>3300</v>
-      </c>
-      <c r="U12" s="45">
-        <v>0</v>
-      </c>
-      <c r="V12" s="53">
-        <v>790.39</v>
-      </c>
-      <c r="W12" s="53">
-        <v>630.78</v>
-      </c>
-      <c r="X12" s="53">
-        <v>3300</v>
-      </c>
-      <c r="Y12" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="53">
-        <v>790.39</v>
-      </c>
-      <c r="AA12" s="53">
-        <v>711.56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="46">
-        <v>40983</v>
-      </c>
-      <c r="F13" s="45">
-        <v>2</v>
-      </c>
-      <c r="G13" s="45">
-        <v>2</v>
-      </c>
-      <c r="H13" s="45">
-        <v>0</v>
-      </c>
-      <c r="I13" s="45">
-        <v>1</v>
-      </c>
-      <c r="J13" s="47">
-        <v>41334</v>
-      </c>
-      <c r="K13" s="45">
-        <v>900</v>
-      </c>
-      <c r="L13" s="45">
-        <v>1</v>
-      </c>
-      <c r="M13" s="47">
-        <v>41122</v>
-      </c>
-      <c r="N13" s="45">
-        <v>1200</v>
-      </c>
-      <c r="O13" s="45">
-        <v>1</v>
-      </c>
-      <c r="P13" s="47">
-        <v>41214</v>
-      </c>
-      <c r="Q13" s="45">
-        <v>1200</v>
-      </c>
-      <c r="R13" s="46">
-        <v>40983</v>
-      </c>
-      <c r="S13" s="53">
-        <v>18.64</v>
-      </c>
-      <c r="T13" s="45">
-        <v>3300</v>
-      </c>
-      <c r="U13" s="45">
-        <v>0</v>
-      </c>
-      <c r="V13" s="53">
-        <v>750</v>
-      </c>
-      <c r="W13" s="53">
-        <v>145.57</v>
-      </c>
-      <c r="X13" s="53">
-        <v>3300</v>
-      </c>
-      <c r="Y13" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="53">
-        <v>798.43</v>
-      </c>
-      <c r="AA13" s="53">
-        <v>164.21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="46">
-        <v>40983</v>
-      </c>
-      <c r="F14" s="45">
-        <v>2</v>
-      </c>
-      <c r="G14" s="45">
-        <v>2</v>
-      </c>
-      <c r="H14" s="45">
-        <v>0</v>
-      </c>
-      <c r="I14" s="45">
-        <v>1</v>
-      </c>
-      <c r="J14" s="47">
-        <v>41334</v>
-      </c>
-      <c r="K14" s="45">
-        <v>900</v>
-      </c>
-      <c r="L14" s="45">
-        <v>1</v>
-      </c>
-      <c r="M14" s="47">
-        <v>41122</v>
-      </c>
-      <c r="N14" s="45">
-        <v>1200</v>
-      </c>
-      <c r="O14" s="45">
-        <v>1</v>
-      </c>
-      <c r="P14" s="47">
-        <v>41214</v>
-      </c>
-      <c r="Q14" s="45">
-        <v>1200</v>
-      </c>
-      <c r="R14" s="46">
-        <v>40983</v>
-      </c>
-      <c r="S14" s="53">
-        <v>20.2</v>
-      </c>
-      <c r="T14" s="45">
-        <v>3300</v>
-      </c>
-      <c r="U14" s="45">
-        <v>0</v>
-      </c>
-      <c r="V14" s="53">
-        <v>750</v>
-      </c>
-      <c r="W14" s="53">
-        <v>157.69999999999999</v>
-      </c>
-      <c r="X14" s="53">
-        <v>3300</v>
-      </c>
-      <c r="Y14" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="53">
-        <v>750</v>
-      </c>
-      <c r="AA14" s="53">
-        <v>177.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B16" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="46">
-        <v>41000</v>
-      </c>
-      <c r="F16" s="45">
-        <v>2</v>
-      </c>
-      <c r="G16" s="45">
-        <v>2</v>
-      </c>
-      <c r="H16" s="45">
-        <v>0</v>
-      </c>
-      <c r="I16" s="45">
-        <v>1</v>
-      </c>
-      <c r="J16" s="47">
-        <v>41334</v>
-      </c>
-      <c r="K16" s="45">
-        <v>900</v>
-      </c>
-      <c r="L16" s="45">
-        <v>1</v>
-      </c>
-      <c r="M16" s="47">
-        <v>41122</v>
-      </c>
-      <c r="N16" s="45">
-        <v>1200</v>
-      </c>
-      <c r="O16" s="45">
-        <v>1</v>
-      </c>
-      <c r="P16" s="47">
-        <v>41214</v>
-      </c>
-      <c r="Q16" s="45">
-        <v>1200</v>
-      </c>
-      <c r="R16" s="46">
-        <v>41000</v>
-      </c>
-      <c r="S16" s="53">
-        <v>40.39</v>
-      </c>
-      <c r="T16" s="45">
-        <v>3300</v>
-      </c>
-      <c r="U16" s="45">
-        <v>0</v>
-      </c>
-      <c r="V16" s="45">
-        <v>750</v>
-      </c>
-      <c r="W16" s="45">
-        <v>315.39</v>
-      </c>
-      <c r="X16" s="45">
-        <v>3300</v>
-      </c>
-      <c r="Y16" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="45">
-        <v>750</v>
-      </c>
-      <c r="AA16" s="45">
-        <v>315.39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="46">
-        <v>41030</v>
-      </c>
-      <c r="F17" s="45">
-        <v>2</v>
-      </c>
-      <c r="G17" s="45">
-        <v>2</v>
-      </c>
-      <c r="H17" s="45">
-        <v>0</v>
-      </c>
-      <c r="I17" s="45">
-        <v>1</v>
-      </c>
-      <c r="J17" s="47">
-        <v>41334</v>
-      </c>
-      <c r="K17" s="45">
-        <v>900</v>
-      </c>
-      <c r="L17" s="45">
-        <v>1</v>
-      </c>
-      <c r="M17" s="47">
-        <v>41122</v>
-      </c>
-      <c r="N17" s="45">
-        <v>1200</v>
-      </c>
-      <c r="O17" s="45">
-        <v>1</v>
-      </c>
-      <c r="P17" s="47">
-        <v>41214</v>
-      </c>
-      <c r="Q17" s="45">
-        <v>1200</v>
-      </c>
-      <c r="R17" s="46">
-        <v>41030</v>
-      </c>
-      <c r="S17" s="53">
-        <v>80.78</v>
-      </c>
-      <c r="T17" s="45">
-        <v>3300</v>
-      </c>
-      <c r="U17" s="45">
-        <v>0</v>
-      </c>
-      <c r="V17" s="53">
-        <v>790.39</v>
-      </c>
-      <c r="W17" s="53">
-        <v>630.78</v>
-      </c>
-      <c r="X17" s="53">
-        <v>3300</v>
-      </c>
-      <c r="Y17" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="53">
-        <v>790.39</v>
-      </c>
-      <c r="AA17" s="53">
-        <v>711.56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B18" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="46">
-        <v>40983</v>
-      </c>
-      <c r="F18" s="45">
-        <v>2</v>
-      </c>
-      <c r="G18" s="45">
-        <v>2</v>
-      </c>
-      <c r="H18" s="45">
-        <v>0</v>
-      </c>
-      <c r="I18" s="45">
-        <v>1</v>
-      </c>
-      <c r="J18" s="47">
-        <v>41334</v>
-      </c>
-      <c r="K18" s="45">
-        <v>900</v>
-      </c>
-      <c r="L18" s="45">
-        <v>1</v>
-      </c>
-      <c r="M18" s="47">
-        <v>41122</v>
-      </c>
-      <c r="N18" s="45">
-        <v>1200</v>
-      </c>
-      <c r="O18" s="45">
-        <v>1</v>
-      </c>
-      <c r="P18" s="47">
-        <v>41214</v>
-      </c>
-      <c r="Q18" s="45">
-        <v>1200</v>
-      </c>
-      <c r="R18" s="46">
-        <v>40983</v>
-      </c>
-      <c r="S18" s="53">
-        <v>18.64</v>
-      </c>
-      <c r="T18" s="45">
-        <v>3300</v>
-      </c>
-      <c r="U18" s="45">
-        <v>0</v>
-      </c>
-      <c r="V18" s="53">
-        <v>750</v>
-      </c>
-      <c r="W18" s="53">
-        <v>145.57</v>
-      </c>
-      <c r="X18" s="53">
-        <v>3300</v>
-      </c>
-      <c r="Y18" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="53">
-        <v>798.43</v>
-      </c>
-      <c r="AA18" s="53">
-        <v>145.57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="46">
-        <v>40983</v>
-      </c>
-      <c r="F19" s="45">
-        <v>2</v>
-      </c>
-      <c r="G19" s="45">
-        <v>2</v>
-      </c>
-      <c r="H19" s="45">
-        <v>0</v>
-      </c>
-      <c r="I19" s="45">
-        <v>1</v>
-      </c>
-      <c r="J19" s="47">
-        <v>41334</v>
-      </c>
-      <c r="K19" s="45">
-        <v>900</v>
-      </c>
-      <c r="L19" s="45">
-        <v>1</v>
-      </c>
-      <c r="M19" s="47">
-        <v>41122</v>
-      </c>
-      <c r="N19" s="45">
-        <v>1200</v>
-      </c>
-      <c r="O19" s="45">
-        <v>1</v>
-      </c>
-      <c r="P19" s="47">
-        <v>41214</v>
-      </c>
-      <c r="Q19" s="45">
-        <v>1200</v>
-      </c>
-      <c r="R19" s="46">
-        <v>40983</v>
-      </c>
-      <c r="S19" s="53">
-        <v>20.2</v>
-      </c>
-      <c r="T19" s="45">
-        <v>3300</v>
-      </c>
-      <c r="U19" s="45">
-        <v>0</v>
-      </c>
-      <c r="V19" s="53">
-        <v>750</v>
-      </c>
-      <c r="W19" s="53">
-        <v>157.69999999999999</v>
-      </c>
-      <c r="X19" s="53">
-        <v>3300</v>
-      </c>
-      <c r="Y19" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="53">
-        <v>750</v>
-      </c>
-      <c r="AA19" s="53">
-        <v>177.9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="45">
-        <v>2</v>
-      </c>
-      <c r="G21" s="45">
-        <v>2</v>
-      </c>
-      <c r="H21" s="45">
-        <v>0</v>
-      </c>
-      <c r="I21" s="45">
-        <v>1</v>
-      </c>
-      <c r="J21" s="47">
-        <v>41334</v>
-      </c>
-      <c r="K21" s="45">
-        <v>900</v>
-      </c>
-      <c r="L21" s="45">
-        <v>1</v>
-      </c>
-      <c r="M21" s="47">
-        <v>41122</v>
-      </c>
-      <c r="N21" s="45">
-        <v>1200</v>
-      </c>
-      <c r="O21" s="45">
-        <v>1</v>
-      </c>
-      <c r="P21" s="47">
-        <v>41214</v>
-      </c>
-      <c r="Q21" s="45">
-        <v>1200</v>
-      </c>
-      <c r="R21" s="46"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="46">
-        <v>41000</v>
-      </c>
-      <c r="F22" s="45">
-        <v>2</v>
-      </c>
-      <c r="G22" s="45">
-        <v>2</v>
-      </c>
-      <c r="H22" s="45">
-        <v>0</v>
-      </c>
-      <c r="I22" s="45">
-        <v>1</v>
-      </c>
-      <c r="J22" s="47">
-        <v>41334</v>
-      </c>
-      <c r="K22" s="45">
-        <v>900</v>
-      </c>
-      <c r="L22" s="45">
-        <v>1</v>
-      </c>
-      <c r="M22" s="47">
-        <v>41122</v>
-      </c>
-      <c r="N22" s="45">
-        <v>1200</v>
-      </c>
-      <c r="O22" s="45">
-        <v>1</v>
-      </c>
-      <c r="P22" s="47">
-        <v>41214</v>
-      </c>
-      <c r="Q22" s="45">
-        <v>1200</v>
-      </c>
-      <c r="R22" s="46">
-        <v>41000</v>
-      </c>
-      <c r="S22" s="53">
-        <v>40.39</v>
-      </c>
-      <c r="T22" s="45">
-        <v>3300</v>
-      </c>
-      <c r="U22" s="45">
-        <v>0</v>
-      </c>
-      <c r="V22" s="45">
-        <v>750</v>
-      </c>
-      <c r="W22" s="45">
-        <v>315.39</v>
-      </c>
-      <c r="X22" s="45">
-        <v>3300</v>
-      </c>
-      <c r="Y22" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="45">
-        <v>750</v>
-      </c>
-      <c r="AA22" s="45">
-        <v>315.39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="46">
-        <v>41030</v>
-      </c>
-      <c r="F23" s="45">
-        <v>2</v>
-      </c>
-      <c r="G23" s="45">
-        <v>2</v>
-      </c>
-      <c r="H23" s="45">
-        <v>0</v>
-      </c>
-      <c r="I23" s="45">
-        <v>1</v>
-      </c>
-      <c r="J23" s="47">
-        <v>41334</v>
-      </c>
-      <c r="K23" s="45">
-        <v>900</v>
-      </c>
-      <c r="L23" s="45">
-        <v>1</v>
-      </c>
-      <c r="M23" s="47">
-        <v>41122</v>
-      </c>
-      <c r="N23" s="45">
-        <v>1200</v>
-      </c>
-      <c r="O23" s="45">
-        <v>1</v>
-      </c>
-      <c r="P23" s="47">
-        <v>41214</v>
-      </c>
-      <c r="Q23" s="45">
-        <v>1200</v>
-      </c>
-      <c r="R23" s="46">
-        <v>41030</v>
-      </c>
-      <c r="S23" s="53">
-        <v>80.78</v>
-      </c>
-      <c r="T23" s="45">
-        <v>3300</v>
-      </c>
-      <c r="U23" s="45">
-        <v>0</v>
-      </c>
-      <c r="V23" s="53">
-        <v>790.39</v>
-      </c>
-      <c r="W23" s="53">
-        <v>630.78</v>
-      </c>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
-      <c r="AA24" s="54"/>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="46">
-        <v>40983</v>
-      </c>
-      <c r="F25" s="45">
-        <v>2</v>
-      </c>
-      <c r="G25" s="45">
-        <v>2</v>
-      </c>
-      <c r="H25" s="45">
-        <v>0</v>
-      </c>
-      <c r="I25" s="45">
-        <v>1</v>
-      </c>
-      <c r="J25" s="47">
-        <v>41334</v>
-      </c>
-      <c r="K25" s="45">
-        <v>900</v>
-      </c>
-      <c r="L25" s="45">
-        <v>1</v>
-      </c>
-      <c r="M25" s="47">
-        <v>41122</v>
-      </c>
-      <c r="N25" s="45">
-        <v>1200</v>
-      </c>
-      <c r="O25" s="45">
-        <v>1</v>
-      </c>
-      <c r="P25" s="47">
-        <v>41214</v>
-      </c>
-      <c r="Q25" s="45">
-        <v>1200</v>
-      </c>
-      <c r="R25" s="46">
-        <v>40983</v>
-      </c>
-      <c r="S25" s="53">
-        <v>20.2</v>
-      </c>
-      <c r="T25" s="45">
-        <v>3300</v>
-      </c>
-      <c r="U25" s="45">
-        <v>0</v>
-      </c>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
+      <c r="R16" s="43">
+        <v>0</v>
+      </c>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7129,1966 +6563,1970 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="11" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.875" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="19.375" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.25" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.875" style="2" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="2"/>
+    <col min="40" max="40" width="22.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="78" t="s">
+      <c r="O1" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="71" t="s">
+      <c r="Q1" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="73" t="s">
+      <c r="S1" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="74" t="s">
+      <c r="T1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="73" t="s">
+      <c r="U1" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="73" t="s">
+      <c r="V1" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="73" t="s">
+      <c r="W1" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="74" t="s">
+      <c r="X1" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="74" t="s">
+      <c r="Y1" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z1" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA1" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF1" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG1" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH1" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="Z1" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA1" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" s="75" t="s">
+      <c r="AL1" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM1" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN1" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO1" s="68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="51">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47">
+        <v>360</v>
+      </c>
+      <c r="J2" s="49">
+        <v>131000</v>
+      </c>
+      <c r="K2" s="47">
+        <v>3.75</v>
+      </c>
+      <c r="L2" s="52">
+        <v>40969</v>
+      </c>
+      <c r="M2" s="52">
+        <v>40969</v>
+      </c>
+      <c r="N2" s="52">
+        <v>41000</v>
+      </c>
+      <c r="O2" s="67">
+        <v>606.91</v>
+      </c>
+      <c r="P2" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="47">
+        <v>605.20000000000005</v>
+      </c>
+      <c r="R2" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="50">
+        <v>606.91</v>
+      </c>
+      <c r="T2" s="67">
+        <v>40.39</v>
+      </c>
+      <c r="U2" s="50">
+        <v>962.69</v>
+      </c>
+      <c r="V2" s="52">
+        <v>43435</v>
+      </c>
+      <c r="W2" s="52">
+        <v>43070</v>
+      </c>
+      <c r="X2" s="48">
+        <v>750</v>
+      </c>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67">
+        <v>221757.48</v>
+      </c>
+      <c r="AA2" s="67">
+        <v>606.91</v>
+      </c>
+      <c r="AB2" s="67">
+        <v>40.39</v>
+      </c>
+      <c r="AC2" s="52">
+        <v>43435</v>
+      </c>
+      <c r="AD2" s="50">
+        <v>962.69</v>
+      </c>
+      <c r="AE2" s="50">
+        <v>3.9348000000000001</v>
+      </c>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67">
+        <v>221757.48</v>
+      </c>
+      <c r="AH2" s="67">
+        <v>90757.48</v>
+      </c>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67">
+        <v>131000</v>
+      </c>
+      <c r="AK2" s="67">
+        <v>3300</v>
+      </c>
+      <c r="AL2" s="50">
+        <v>66.783100000000005</v>
+      </c>
+      <c r="AM2" s="48">
+        <v>750</v>
+      </c>
+      <c r="AN2" s="67">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="48">
+        <v>355.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="51">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="47">
+        <v>2</v>
+      </c>
+      <c r="I3" s="47">
+        <v>180</v>
+      </c>
+      <c r="J3" s="49">
+        <v>131000</v>
+      </c>
+      <c r="K3" s="47">
+        <v>3.75</v>
+      </c>
+      <c r="L3" s="52">
+        <v>40969</v>
+      </c>
+      <c r="M3" s="52">
+        <v>40969</v>
+      </c>
+      <c r="N3" s="52">
+        <v>41030</v>
+      </c>
+      <c r="O3" s="67">
+        <v>1214.82</v>
+      </c>
+      <c r="P3" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="47">
+        <v>1216.18</v>
+      </c>
+      <c r="R3" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="50">
+        <v>1214.82</v>
+      </c>
+      <c r="T3" s="67">
+        <v>80.78</v>
+      </c>
+      <c r="U3" s="50">
+        <v>1926.38</v>
+      </c>
+      <c r="V3" s="52">
+        <v>43466</v>
+      </c>
+      <c r="W3" s="52">
+        <v>43101</v>
+      </c>
+      <c r="X3" s="67">
+        <v>790.39</v>
+      </c>
+      <c r="Y3" s="67">
+        <v>1216.18</v>
+      </c>
+      <c r="Z3" s="67">
+        <v>221900.16</v>
+      </c>
+      <c r="AA3" s="67">
+        <v>1214.82</v>
+      </c>
+      <c r="AB3" s="67">
+        <v>80.78</v>
+      </c>
+      <c r="AC3" s="52">
+        <v>43466</v>
+      </c>
+      <c r="AD3" s="50">
+        <v>1926.38</v>
+      </c>
+      <c r="AE3" s="50">
+        <v>3.9323000000000001</v>
+      </c>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67">
+        <v>221900.16</v>
+      </c>
+      <c r="AH3" s="67">
+        <v>90900.160000000003</v>
+      </c>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67">
+        <v>131000</v>
+      </c>
+      <c r="AK3" s="67">
+        <v>3300</v>
+      </c>
+      <c r="AL3" s="50">
+        <v>66.922899999999998</v>
+      </c>
+      <c r="AM3" s="67">
+        <v>790.39</v>
+      </c>
+      <c r="AN3" s="67">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="67">
+        <v>711.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="51">
+        <v>3</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47">
+        <v>360</v>
+      </c>
+      <c r="J4" s="49">
+        <v>131000</v>
+      </c>
+      <c r="K4" s="47">
+        <v>3.75</v>
+      </c>
+      <c r="L4" s="52">
+        <v>40969</v>
+      </c>
+      <c r="M4" s="52">
+        <v>40969</v>
+      </c>
+      <c r="N4" s="52">
+        <v>40983</v>
+      </c>
+      <c r="O4" s="67">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="P4" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="47">
+        <v>98.13</v>
+      </c>
+      <c r="R4" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="50">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="T4" s="67">
+        <v>18.64</v>
+      </c>
+      <c r="U4" s="50">
+        <v>467.55</v>
+      </c>
+      <c r="V4" s="52">
+        <v>42943</v>
+      </c>
+      <c r="W4" s="52">
+        <v>42649</v>
+      </c>
+      <c r="X4" s="67">
+        <v>798.43</v>
+      </c>
+      <c r="Y4" s="67">
+        <v>98.13</v>
+      </c>
+      <c r="Z4" s="67">
+        <v>207480.87</v>
+      </c>
+      <c r="AA4" s="67">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="AB4" s="67">
+        <v>18.64</v>
+      </c>
+      <c r="AC4" s="52">
+        <v>42943</v>
+      </c>
+      <c r="AD4" s="50">
+        <v>467.54999999999995</v>
+      </c>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67">
+        <v>207480.87</v>
+      </c>
+      <c r="AH4" s="67">
+        <v>76480.87</v>
+      </c>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="67">
+        <v>131000</v>
+      </c>
+      <c r="AK4" s="67">
+        <v>3300</v>
+      </c>
+      <c r="AL4" s="50">
+        <v>56.375999999999998</v>
+      </c>
+      <c r="AM4" s="67">
+        <v>798.43</v>
+      </c>
+      <c r="AN4" s="67">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="67">
+        <v>164.20999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="51">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47">
+        <v>360</v>
+      </c>
+      <c r="J5" s="49">
+        <v>131000</v>
+      </c>
+      <c r="K5" s="47">
+        <v>3.75</v>
+      </c>
+      <c r="L5" s="52">
+        <v>40969</v>
+      </c>
+      <c r="M5" s="52">
+        <v>40969</v>
+      </c>
+      <c r="N5" s="52">
+        <v>40983</v>
+      </c>
+      <c r="O5" s="67">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="P5" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="47">
+        <v>258.02</v>
+      </c>
+      <c r="R5" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="50">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="T5" s="67">
+        <v>20.2</v>
+      </c>
+      <c r="U5" s="50">
+        <v>481.24</v>
+      </c>
+      <c r="V5" s="52">
+        <v>43419</v>
+      </c>
+      <c r="W5" s="52">
+        <v>43054</v>
+      </c>
+      <c r="X5" s="67">
+        <v>750</v>
+      </c>
+      <c r="Y5" s="67">
+        <v>258.02</v>
+      </c>
+      <c r="Z5" s="67">
+        <v>221611.68</v>
+      </c>
+      <c r="AA5" s="67">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="AB5" s="67">
+        <v>20.2</v>
+      </c>
+      <c r="AC5" s="52">
+        <v>43419</v>
+      </c>
+      <c r="AD5" s="50">
+        <v>481.24</v>
+      </c>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67">
+        <v>221611.68</v>
+      </c>
+      <c r="AH5" s="67">
+        <v>90611.68</v>
+      </c>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67">
+        <v>131000</v>
+      </c>
+      <c r="AK5" s="67">
+        <v>3300</v>
+      </c>
+      <c r="AL5" s="50">
+        <v>66.686629999999994</v>
+      </c>
+      <c r="AM5" s="67">
+        <v>750</v>
+      </c>
+      <c r="AN5" s="67">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="67">
+        <v>177.89999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="51">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47">
+        <v>360</v>
+      </c>
+      <c r="J6" s="49">
+        <v>131000</v>
+      </c>
+      <c r="K6" s="47">
+        <v>3.75</v>
+      </c>
+      <c r="L6" s="52">
+        <v>40969</v>
+      </c>
+      <c r="M6" s="52">
+        <v>40969</v>
+      </c>
+      <c r="N6" s="52">
+        <v>41000</v>
+      </c>
+      <c r="O6" s="67">
+        <v>606.70000000000005</v>
+      </c>
+      <c r="P6" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="47">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="R6" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="50">
+        <v>606.70000000000005</v>
+      </c>
+      <c r="T6" s="67">
+        <v>40.39</v>
+      </c>
+      <c r="U6" s="50">
+        <v>962.48</v>
+      </c>
+      <c r="V6" s="52">
+        <v>43435</v>
+      </c>
+      <c r="W6" s="52">
+        <v>43070</v>
+      </c>
+      <c r="X6" s="48">
+        <v>750</v>
+      </c>
+      <c r="Y6" s="67">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="Z6" s="67">
+        <v>221683.57</v>
+      </c>
+      <c r="AA6" s="67">
+        <v>606.70000000000005</v>
+      </c>
+      <c r="AB6" s="67">
+        <v>40.39</v>
+      </c>
+      <c r="AC6" s="52">
+        <v>43435</v>
+      </c>
+      <c r="AD6" s="50">
+        <v>747.09</v>
+      </c>
+      <c r="AE6" s="50">
+        <v>3.9319999999999999</v>
+      </c>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="67">
+        <v>221683.57</v>
+      </c>
+      <c r="AH6" s="67">
+        <v>90683.57</v>
+      </c>
+      <c r="AI6" s="67"/>
+      <c r="AJ6" s="67">
+        <v>131000</v>
+      </c>
+      <c r="AK6" s="67">
+        <v>3300</v>
+      </c>
+      <c r="AL6" s="50">
+        <v>66.725999999999999</v>
+      </c>
+      <c r="AM6" s="48">
+        <v>750</v>
+      </c>
+      <c r="AN6" s="67">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="48">
+        <v>355.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="51">
+        <v>6</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="47">
+        <v>2</v>
+      </c>
+      <c r="I7" s="47">
+        <v>180</v>
+      </c>
+      <c r="J7" s="49">
+        <v>131000</v>
+      </c>
+      <c r="K7" s="47">
+        <v>3.75</v>
+      </c>
+      <c r="L7" s="52">
+        <v>40969</v>
+      </c>
+      <c r="M7" s="52">
+        <v>40969</v>
+      </c>
+      <c r="N7" s="52">
+        <v>41030</v>
+      </c>
+      <c r="O7" s="67">
+        <v>1214.4100000000001</v>
+      </c>
+      <c r="P7" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="47">
+        <v>1214.2</v>
+      </c>
+      <c r="R7" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="50">
+        <v>1214.4100000000001</v>
+      </c>
+      <c r="T7" s="67">
+        <v>80.78</v>
+      </c>
+      <c r="U7" s="50">
+        <v>1925.97</v>
+      </c>
+      <c r="V7" s="52">
+        <v>43466</v>
+      </c>
+      <c r="W7" s="52">
+        <v>43101</v>
+      </c>
+      <c r="X7" s="67">
+        <v>790.39</v>
+      </c>
+      <c r="Y7" s="67">
+        <v>1214.2</v>
+      </c>
+      <c r="Z7" s="67">
+        <v>221824.79</v>
+      </c>
+      <c r="AA7" s="67">
+        <v>1214.4100000000001</v>
+      </c>
+      <c r="AB7" s="67">
+        <v>80.78</v>
+      </c>
+      <c r="AC7" s="52">
+        <v>43405</v>
+      </c>
+      <c r="AD7" s="50">
+        <v>1495.19</v>
+      </c>
+      <c r="AE7" s="50">
+        <v>3.9295</v>
+      </c>
+      <c r="AF7" s="67"/>
+      <c r="AG7" s="67">
+        <v>221824.79</v>
+      </c>
+      <c r="AH7" s="67">
+        <v>97868.29</v>
+      </c>
+      <c r="AI7" s="67"/>
+      <c r="AJ7" s="67">
+        <v>131000</v>
+      </c>
+      <c r="AK7" s="67">
+        <v>3300</v>
+      </c>
+      <c r="AL7" s="50">
+        <v>66.864999999999995</v>
+      </c>
+      <c r="AM7" s="67">
+        <v>790.39</v>
+      </c>
+      <c r="AN7" s="67">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="67">
+        <v>711.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="51">
+        <v>7</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47">
+        <v>360</v>
+      </c>
+      <c r="J8" s="49">
+        <v>131000</v>
+      </c>
+      <c r="K8" s="47">
+        <v>3.75</v>
+      </c>
+      <c r="L8" s="52">
+        <v>40969</v>
+      </c>
+      <c r="M8" s="52">
+        <v>40969</v>
+      </c>
+      <c r="N8" s="52">
+        <v>40983</v>
+      </c>
+      <c r="O8" s="67">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="P8" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="47">
+        <v>301.02999999999997</v>
+      </c>
+      <c r="R8" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="50">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="T8" s="67">
+        <v>18.64</v>
+      </c>
+      <c r="U8" s="50">
+        <v>467.55</v>
+      </c>
+      <c r="V8" s="52">
+        <v>42943</v>
+      </c>
+      <c r="W8" s="52">
+        <v>42649</v>
+      </c>
+      <c r="X8" s="67">
+        <v>798.43</v>
+      </c>
+      <c r="Y8" s="67">
+        <v>301.02999999999997</v>
+      </c>
+      <c r="Z8" s="67">
+        <v>207380.43</v>
+      </c>
+      <c r="AA8" s="67">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="AB8" s="67">
+        <v>18.64</v>
+      </c>
+      <c r="AC8" s="52">
+        <v>42943</v>
+      </c>
+      <c r="AD8" s="50">
+        <v>467.55</v>
+      </c>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67">
+        <v>207380.43</v>
+      </c>
+      <c r="AH8" s="67">
+        <v>76380.429999999993</v>
+      </c>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67">
+        <v>131000</v>
+      </c>
+      <c r="AK8" s="67">
+        <v>3300</v>
+      </c>
+      <c r="AL8" s="50">
+        <v>56.298999999999999</v>
+      </c>
+      <c r="AM8" s="67">
+        <v>798.43</v>
+      </c>
+      <c r="AN8" s="67">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="67">
+        <v>164.20999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="51">
+        <v>8</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47">
+        <v>360</v>
+      </c>
+      <c r="J9" s="49">
+        <v>131000</v>
+      </c>
+      <c r="K9" s="47">
+        <v>3.75</v>
+      </c>
+      <c r="L9" s="52">
+        <v>40969</v>
+      </c>
+      <c r="M9" s="52">
+        <v>40969</v>
+      </c>
+      <c r="N9" s="52">
+        <v>40983</v>
+      </c>
+      <c r="O9" s="67">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="P9" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="47">
+        <v>0</v>
+      </c>
+      <c r="R9" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="50">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="T9" s="67">
+        <v>20.2</v>
+      </c>
+      <c r="U9" s="50">
+        <v>481.24</v>
+      </c>
+      <c r="V9" s="52">
+        <v>43419</v>
+      </c>
+      <c r="W9" s="52">
+        <v>43054</v>
+      </c>
+      <c r="X9" s="67">
+        <v>750</v>
+      </c>
+      <c r="Y9" s="67">
+        <v>127.06</v>
+      </c>
+      <c r="Z9" s="67">
+        <v>221480.72</v>
+      </c>
+      <c r="AA9" s="67">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="AB9" s="67">
+        <v>20.2</v>
+      </c>
+      <c r="AC9" s="52">
+        <v>43419</v>
+      </c>
+      <c r="AD9" s="50">
+        <v>481.24</v>
+      </c>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67">
+        <v>221480.72</v>
+      </c>
+      <c r="AH9" s="67">
+        <v>90480.72</v>
+      </c>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="67">
+        <v>131000</v>
+      </c>
+      <c r="AK9" s="67">
+        <v>3300</v>
+      </c>
+      <c r="AL9" s="50">
+        <v>66.586600000000004</v>
+      </c>
+      <c r="AM9" s="67">
+        <v>750</v>
+      </c>
+      <c r="AN9" s="67">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="67">
+        <v>177.89999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="51">
         <v>9</v>
       </c>
-      <c r="AC1" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD1" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF1" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG1" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH1" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ1" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK1" s="75" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL1" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM1" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN1" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="AO1" s="77" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="60">
+      <c r="B10" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="56" t="s">
+      <c r="D10" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47">
+        <v>360</v>
+      </c>
+      <c r="J10" s="49">
+        <v>131000</v>
+      </c>
+      <c r="K10" s="47">
+        <v>3.75</v>
+      </c>
+      <c r="L10" s="52">
+        <v>40969</v>
+      </c>
+      <c r="M10" s="52">
+        <v>40969</v>
+      </c>
+      <c r="N10" s="52">
+        <v>41000</v>
+      </c>
+      <c r="O10" s="67">
+        <v>610.79</v>
+      </c>
+      <c r="P10" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="47">
+        <v>610.55999999999995</v>
+      </c>
+      <c r="R10" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="50">
+        <v>610.79</v>
+      </c>
+      <c r="T10" s="67">
+        <v>40.39</v>
+      </c>
+      <c r="U10" s="50">
+        <v>751.18</v>
+      </c>
+      <c r="V10" s="52">
+        <v>43435</v>
+      </c>
+      <c r="W10" s="52">
+        <v>43070</v>
+      </c>
+      <c r="X10" s="48">
+        <v>750</v>
+      </c>
+      <c r="Y10" s="67">
+        <v>610.55999999999995</v>
+      </c>
+      <c r="Z10" s="67">
+        <v>223155.76</v>
+      </c>
+      <c r="AA10" s="67">
+        <v>610.79</v>
+      </c>
+      <c r="AB10" s="67">
+        <v>40.39</v>
+      </c>
+      <c r="AC10" s="52">
+        <v>43435</v>
+      </c>
+      <c r="AD10" s="50">
+        <v>751.18</v>
+      </c>
+      <c r="AE10" s="50">
+        <v>3.9870999999999999</v>
+      </c>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="67">
+        <v>223155.76</v>
+      </c>
+      <c r="AH10" s="67">
+        <v>92155.76</v>
+      </c>
+      <c r="AI10" s="67"/>
+      <c r="AJ10" s="67">
+        <v>131000</v>
+      </c>
+      <c r="AK10" s="67">
+        <v>1200</v>
+      </c>
+      <c r="AL10" s="50">
+        <v>67.850499999999997</v>
+      </c>
+      <c r="AM10" s="48">
+        <v>750</v>
+      </c>
+      <c r="AN10" s="67">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="48">
+        <v>355.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="51">
+        <v>10</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D11" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="47">
         <v>2</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="I11" s="47">
+        <v>360</v>
+      </c>
+      <c r="J11" s="49">
+        <v>131000</v>
+      </c>
+      <c r="K11" s="47">
+        <v>3.75</v>
+      </c>
+      <c r="L11" s="52">
+        <v>40969</v>
+      </c>
+      <c r="M11" s="52">
+        <v>40969</v>
+      </c>
+      <c r="N11" s="52">
+        <v>41030</v>
+      </c>
+      <c r="O11" s="67">
+        <v>1222.5999999999999</v>
+      </c>
+      <c r="P11" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="47">
+        <v>1222.53</v>
+      </c>
+      <c r="R11" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" s="50">
+        <v>1222.5999999999999</v>
+      </c>
+      <c r="T11" s="67">
+        <v>80.78</v>
+      </c>
+      <c r="U11" s="50">
+        <v>1503.38</v>
+      </c>
+      <c r="V11" s="52">
+        <v>43466</v>
+      </c>
+      <c r="W11" s="52">
+        <v>43101</v>
+      </c>
+      <c r="X11" s="67">
+        <v>790.39</v>
+      </c>
+      <c r="Y11" s="67">
+        <v>1222.53</v>
+      </c>
+      <c r="Z11" s="67">
+        <v>223299.13</v>
+      </c>
+      <c r="AA11" s="67">
+        <v>1222.5999999999999</v>
+      </c>
+      <c r="AB11" s="67">
+        <v>80.78</v>
+      </c>
+      <c r="AC11" s="52">
+        <v>43435</v>
+      </c>
+      <c r="AD11" s="50">
+        <v>1503.38</v>
+      </c>
+      <c r="AE11" s="50">
+        <v>3.9847000000000001</v>
+      </c>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67">
+        <v>223299.13</v>
+      </c>
+      <c r="AH11" s="67">
+        <v>92299.13</v>
+      </c>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="67">
+        <v>131000</v>
+      </c>
+      <c r="AK11" s="67">
+        <v>1200</v>
+      </c>
+      <c r="AL11" s="50">
+        <v>67.991</v>
+      </c>
+      <c r="AM11" s="67">
+        <v>790.39</v>
+      </c>
+      <c r="AN11" s="67">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="67">
+        <v>711.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="51">
+        <v>11</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F12" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56">
+      <c r="G12" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47">
         <v>360</v>
       </c>
-      <c r="J2" s="58">
+      <c r="J12" s="49">
         <v>131000</v>
       </c>
-      <c r="K2" s="56">
+      <c r="K12" s="47">
         <v>3.75</v>
       </c>
-      <c r="L2" s="61">
+      <c r="L12" s="52">
         <v>40969</v>
       </c>
-      <c r="M2" s="61">
+      <c r="M12" s="52">
         <v>40969</v>
       </c>
-      <c r="N2" s="61">
-        <v>41000</v>
-      </c>
-      <c r="O2" s="76">
-        <v>606.91</v>
-      </c>
-      <c r="P2" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="56">
-        <v>605.20000000000005</v>
-      </c>
-      <c r="R2" s="62" t="s">
+      <c r="N12" s="52">
+        <v>40983</v>
+      </c>
+      <c r="O12" s="67">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="P12" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="47">
+        <v>269.13</v>
+      </c>
+      <c r="R12" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="59">
-        <v>606.91</v>
-      </c>
-      <c r="T2" s="76">
+      <c r="S12" s="50">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="T12" s="67">
+        <v>20.2</v>
+      </c>
+      <c r="U12" s="50">
+        <v>747.07</v>
+      </c>
+      <c r="V12" s="52">
+        <v>42985</v>
+      </c>
+      <c r="W12" s="52">
+        <v>42691</v>
+      </c>
+      <c r="X12" s="67">
+        <v>750</v>
+      </c>
+      <c r="Y12" s="67">
+        <v>269.13</v>
+      </c>
+      <c r="Z12" s="67">
+        <v>209527.83</v>
+      </c>
+      <c r="AA12" s="67">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="AB12" s="67">
+        <v>18.64</v>
+      </c>
+      <c r="AC12" s="52">
+        <v>42985</v>
+      </c>
+      <c r="AD12" s="50">
+        <v>467.55</v>
+      </c>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="67">
+        <v>209527.83</v>
+      </c>
+      <c r="AH12" s="67">
+        <v>78527.83</v>
+      </c>
+      <c r="AI12" s="67"/>
+      <c r="AJ12" s="67">
+        <v>131000</v>
+      </c>
+      <c r="AK12" s="67">
+        <v>1200</v>
+      </c>
+      <c r="AL12" s="50">
+        <v>57.895899999999997</v>
+      </c>
+      <c r="AM12" s="67">
+        <v>798.43</v>
+      </c>
+      <c r="AN12" s="67">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="67">
+        <v>164.20999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="51">
+        <v>12</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47">
+        <v>360</v>
+      </c>
+      <c r="J13" s="49">
+        <v>131000</v>
+      </c>
+      <c r="K13" s="47">
+        <v>3.75</v>
+      </c>
+      <c r="L13" s="52">
+        <v>40969</v>
+      </c>
+      <c r="M13" s="52">
+        <v>40969</v>
+      </c>
+      <c r="N13" s="52">
+        <v>40983</v>
+      </c>
+      <c r="O13" s="67">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="P13" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="47">
+        <v>0</v>
+      </c>
+      <c r="R13" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="50">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="T13" s="67">
+        <v>20.2</v>
+      </c>
+      <c r="U13" s="50">
+        <v>747.07</v>
+      </c>
+      <c r="V13" s="52">
+        <v>42372</v>
+      </c>
+      <c r="W13" s="52">
+        <v>43475</v>
+      </c>
+      <c r="X13" s="67">
+        <v>750</v>
+      </c>
+      <c r="Y13" s="67">
+        <v>127.06</v>
+      </c>
+      <c r="Z13" s="67">
+        <v>224314.74</v>
+      </c>
+      <c r="AA13" s="67">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="AB13" s="67">
+        <v>20.2</v>
+      </c>
+      <c r="AC13" s="52">
+        <v>43480</v>
+      </c>
+      <c r="AD13" s="50">
+        <v>481.24</v>
+      </c>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="67">
+        <v>224314.74</v>
+      </c>
+      <c r="AH13" s="67">
+        <v>93314.74</v>
+      </c>
+      <c r="AI13" s="67"/>
+      <c r="AJ13" s="67">
+        <v>131000</v>
+      </c>
+      <c r="AK13" s="67">
+        <v>1200</v>
+      </c>
+      <c r="AL13" s="50">
+        <v>68.68835</v>
+      </c>
+      <c r="AM13" s="67">
+        <v>750</v>
+      </c>
+      <c r="AN13" s="67">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="67">
+        <v>177.89999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" s="51">
+        <v>13</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47">
+        <v>360</v>
+      </c>
+      <c r="J14" s="49">
+        <v>131000</v>
+      </c>
+      <c r="K14" s="47">
+        <v>3.75</v>
+      </c>
+      <c r="L14" s="52">
+        <v>40969</v>
+      </c>
+      <c r="M14" s="52">
+        <v>40969</v>
+      </c>
+      <c r="N14" s="52">
+        <v>41000</v>
+      </c>
+      <c r="O14" s="67">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="P14" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="47">
+        <v>0</v>
+      </c>
+      <c r="R14" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="50">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="T14" s="67">
         <v>40.39</v>
       </c>
-      <c r="U2" s="59">
-        <v>962.69</v>
-      </c>
-      <c r="V2" s="61">
-        <v>43435</v>
-      </c>
-      <c r="W2" s="61">
+      <c r="U14" s="50">
+        <v>747.07</v>
+      </c>
+      <c r="V14" s="52">
+        <v>43405</v>
+      </c>
+      <c r="W14" s="52">
         <v>43070</v>
       </c>
-      <c r="X2" s="57">
+      <c r="X14" s="48">
         <v>750</v>
       </c>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76">
-        <v>221757.48</v>
-      </c>
-      <c r="AA2" s="76">
-        <v>606.91</v>
-      </c>
-      <c r="AB2" s="76">
+      <c r="Y14" s="67">
+        <v>610.55999999999995</v>
+      </c>
+      <c r="Z14" s="67">
+        <v>221636</v>
+      </c>
+      <c r="AA14" s="67">
+        <v>606.67999999999995</v>
+      </c>
+      <c r="AB14" s="67">
         <v>40.39</v>
       </c>
-      <c r="AC2" s="61">
-        <v>43435</v>
-      </c>
-      <c r="AD2" s="59">
-        <v>962.69</v>
-      </c>
-      <c r="AE2" s="59">
-        <v>3.9348000000000001</v>
-      </c>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76">
-        <v>221757.48</v>
-      </c>
-      <c r="AH2" s="76">
-        <v>90757.48</v>
-      </c>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76">
+      <c r="AC14" s="52">
+        <v>43405</v>
+      </c>
+      <c r="AD14" s="50">
+        <v>747.06999999999994</v>
+      </c>
+      <c r="AE14" s="50">
+        <v>3.9297</v>
+      </c>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="67">
+        <v>221636</v>
+      </c>
+      <c r="AH14" s="67">
+        <v>90636.49</v>
+      </c>
+      <c r="AI14" s="67">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="67">
         <v>131000</v>
       </c>
-      <c r="AK2" s="76">
-        <v>3300</v>
-      </c>
-      <c r="AL2" s="59">
-        <v>66.783100000000005</v>
-      </c>
-      <c r="AM2" s="57">
+      <c r="AK14" s="67">
+        <v>1200</v>
+      </c>
+      <c r="AL14" s="50">
+        <v>66.72</v>
+      </c>
+      <c r="AM14" s="48">
         <v>750</v>
       </c>
-      <c r="AN2" s="76">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="57">
+      <c r="AN14" s="67">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="48">
         <v>355.78</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="60">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" s="51">
+        <v>14</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="47">
         <v>2</v>
       </c>
-      <c r="B3" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="56" t="s">
+      <c r="I15" s="47">
+        <v>180</v>
+      </c>
+      <c r="J15" s="49">
+        <v>131000</v>
+      </c>
+      <c r="K15" s="47">
+        <v>3.75</v>
+      </c>
+      <c r="L15" s="52">
+        <v>40969</v>
+      </c>
+      <c r="M15" s="52">
+        <v>40969</v>
+      </c>
+      <c r="N15" s="52">
+        <v>41030</v>
+      </c>
+      <c r="O15" s="67">
+        <v>1214.3900000000001</v>
+      </c>
+      <c r="P15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="47">
+        <v>1213.26</v>
+      </c>
+      <c r="R15" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="50">
+        <v>1214.3900000000001</v>
+      </c>
+      <c r="T15" s="67">
+        <v>80.78</v>
+      </c>
+      <c r="U15" s="50">
+        <v>1495.17</v>
+      </c>
+      <c r="V15" s="52">
+        <v>43405</v>
+      </c>
+      <c r="W15" s="52">
+        <v>43101</v>
+      </c>
+      <c r="X15" s="67">
+        <v>790.39</v>
+      </c>
+      <c r="Y15" s="67">
+        <v>1222.53</v>
+      </c>
+      <c r="Z15" s="67">
+        <v>221820.27</v>
+      </c>
+      <c r="AA15" s="67">
+        <v>1214.3900000000001</v>
+      </c>
+      <c r="AB15" s="67">
+        <v>80.78</v>
+      </c>
+      <c r="AC15" s="52">
+        <v>43405</v>
+      </c>
+      <c r="AD15" s="50">
+        <v>747.06999999999994</v>
+      </c>
+      <c r="AE15" s="50">
+        <v>3.9293999999999998</v>
+      </c>
+      <c r="AF15" s="67"/>
+      <c r="AG15" s="67">
+        <v>221820.27</v>
+      </c>
+      <c r="AH15" s="67">
+        <v>90820.4</v>
+      </c>
+      <c r="AI15" s="67">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="67">
+        <v>131000</v>
+      </c>
+      <c r="AK15" s="67">
+        <v>1200</v>
+      </c>
+      <c r="AL15" s="50">
+        <v>66.861000000000004</v>
+      </c>
+      <c r="AM15" s="67">
+        <v>790.39</v>
+      </c>
+      <c r="AN15" s="67">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="67">
+        <v>711.56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" s="51">
+        <v>15</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="56" t="s">
+      <c r="D16" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F16" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="56">
-        <v>2</v>
-      </c>
-      <c r="I3" s="56">
-        <v>180</v>
-      </c>
-      <c r="J3" s="58">
+      <c r="G16" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47">
+        <v>720</v>
+      </c>
+      <c r="J16" s="49">
         <v>131000</v>
       </c>
-      <c r="K3" s="56">
+      <c r="K16" s="47">
         <v>3.75</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L16" s="52">
         <v>40969</v>
       </c>
-      <c r="M3" s="61">
+      <c r="M16" s="52">
         <v>40969</v>
       </c>
-      <c r="N3" s="61">
-        <v>41030</v>
-      </c>
-      <c r="O3" s="76">
-        <v>1214.82</v>
-      </c>
-      <c r="P3" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="56">
-        <v>1216.18</v>
-      </c>
-      <c r="R3" s="62" t="s">
+      <c r="N16" s="52">
+        <v>40983</v>
+      </c>
+      <c r="O16" s="67">
+        <v>303.20999999999998</v>
+      </c>
+      <c r="P16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="47">
+        <v>0</v>
+      </c>
+      <c r="R16" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="59">
-        <v>1214.82</v>
-      </c>
-      <c r="T3" s="76">
-        <v>80.78</v>
-      </c>
-      <c r="U3" s="59">
-        <v>1926.38</v>
-      </c>
-      <c r="V3" s="61">
-        <v>43466</v>
-      </c>
-      <c r="W3" s="61">
-        <v>43101</v>
-      </c>
-      <c r="X3" s="76">
-        <v>790.39</v>
-      </c>
-      <c r="Y3" s="76">
-        <v>1216.18</v>
-      </c>
-      <c r="Z3" s="76">
-        <v>221900.16</v>
-      </c>
-      <c r="AA3" s="76">
-        <v>1214.82</v>
-      </c>
-      <c r="AB3" s="76">
-        <v>80.78</v>
-      </c>
-      <c r="AC3" s="61">
-        <v>43466</v>
-      </c>
-      <c r="AD3" s="59">
-        <v>1926.38</v>
-      </c>
-      <c r="AE3" s="59">
-        <v>3.9323000000000001</v>
-      </c>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76">
-        <v>221900.16</v>
-      </c>
-      <c r="AH3" s="76">
-        <v>90900.160000000003</v>
-      </c>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76">
+      <c r="S16" s="50">
+        <v>303.20999999999998</v>
+      </c>
+      <c r="T16" s="67">
+        <v>20.2</v>
+      </c>
+      <c r="U16" s="50">
+        <v>373.41</v>
+      </c>
+      <c r="V16" s="52">
+        <v>43419</v>
+      </c>
+      <c r="W16" s="52">
+        <v>43054</v>
+      </c>
+      <c r="X16" s="67">
+        <v>750</v>
+      </c>
+      <c r="Y16" s="67">
+        <v>127.06</v>
+      </c>
+      <c r="Z16" s="67">
+        <v>221563.4</v>
+      </c>
+      <c r="AA16" s="67">
+        <v>303.20999999999998</v>
+      </c>
+      <c r="AB16" s="67">
+        <v>20.2</v>
+      </c>
+      <c r="AC16" s="52">
+        <v>43419</v>
+      </c>
+      <c r="AD16" s="50">
+        <v>303.20999999999998</v>
+      </c>
+      <c r="AE16" s="50">
+        <v>3.9318</v>
+      </c>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="67">
+        <v>221563.4</v>
+      </c>
+      <c r="AH16" s="67">
+        <v>90566.94</v>
+      </c>
+      <c r="AI16" s="67">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="67">
         <v>131000</v>
       </c>
-      <c r="AK3" s="76">
-        <v>3300</v>
-      </c>
-      <c r="AL3" s="59">
-        <v>66.922899999999998</v>
-      </c>
-      <c r="AM3" s="76">
-        <v>790.39</v>
-      </c>
-      <c r="AN3" s="76">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="76">
-        <v>711.56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" s="60">
-        <v>3</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56">
-        <v>360</v>
-      </c>
-      <c r="J4" s="58">
-        <v>131000</v>
-      </c>
-      <c r="K4" s="56">
-        <v>3.75</v>
-      </c>
-      <c r="L4" s="61">
-        <v>40969</v>
-      </c>
-      <c r="M4" s="61">
-        <v>40969</v>
-      </c>
-      <c r="N4" s="61">
-        <v>40983</v>
-      </c>
-      <c r="O4" s="76">
-        <v>303.33999999999997</v>
-      </c>
-      <c r="P4" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="56">
-        <v>98.13</v>
-      </c>
-      <c r="R4" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="59">
-        <v>303.33999999999997</v>
-      </c>
-      <c r="T4" s="76">
-        <v>18.64</v>
-      </c>
-      <c r="U4" s="59">
-        <v>467.55</v>
-      </c>
-      <c r="V4" s="61">
-        <v>42943</v>
-      </c>
-      <c r="W4" s="61">
-        <v>42649</v>
-      </c>
-      <c r="X4" s="76">
-        <v>798.43</v>
-      </c>
-      <c r="Y4" s="76">
-        <v>98.13</v>
-      </c>
-      <c r="Z4" s="76">
-        <v>207480.87</v>
-      </c>
-      <c r="AA4" s="76">
-        <v>303.33999999999997</v>
-      </c>
-      <c r="AB4" s="76">
-        <v>18.64</v>
-      </c>
-      <c r="AC4" s="61">
-        <v>42943</v>
-      </c>
-      <c r="AD4" s="59">
-        <v>467.54999999999995</v>
-      </c>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76">
-        <v>207480.87</v>
-      </c>
-      <c r="AH4" s="76">
-        <v>76480.87</v>
-      </c>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76">
-        <v>131000</v>
-      </c>
-      <c r="AK4" s="76">
-        <v>3300</v>
-      </c>
-      <c r="AL4" s="59">
-        <v>56.375999999999998</v>
-      </c>
-      <c r="AM4" s="76">
-        <v>798.43</v>
-      </c>
-      <c r="AN4" s="76">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="76">
-        <v>164.20999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="60">
-        <v>4</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56">
-        <v>360</v>
-      </c>
-      <c r="J5" s="58">
-        <v>131000</v>
-      </c>
-      <c r="K5" s="56">
-        <v>3.75</v>
-      </c>
-      <c r="L5" s="61">
-        <v>40969</v>
-      </c>
-      <c r="M5" s="61">
-        <v>40969</v>
-      </c>
-      <c r="N5" s="61">
-        <v>40983</v>
-      </c>
-      <c r="O5" s="76">
-        <v>303.33999999999997</v>
-      </c>
-      <c r="P5" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="56">
-        <v>258.02</v>
-      </c>
-      <c r="R5" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="59">
-        <v>303.33999999999997</v>
-      </c>
-      <c r="T5" s="76">
-        <v>20.2</v>
-      </c>
-      <c r="U5" s="59">
-        <v>481.24</v>
-      </c>
-      <c r="V5" s="61">
-        <v>43419</v>
-      </c>
-      <c r="W5" s="61">
-        <v>43054</v>
-      </c>
-      <c r="X5" s="76">
+      <c r="AK16" s="67">
+        <v>1200</v>
+      </c>
+      <c r="AL16" s="50">
+        <v>66.652000000000001</v>
+      </c>
+      <c r="AM16" s="67">
         <v>750</v>
       </c>
-      <c r="Y5" s="76">
-        <v>258.02</v>
-      </c>
-      <c r="Z5" s="76">
-        <v>221611.68</v>
-      </c>
-      <c r="AA5" s="76">
-        <v>303.33999999999997</v>
-      </c>
-      <c r="AB5" s="76">
-        <v>20.2</v>
-      </c>
-      <c r="AC5" s="61">
-        <v>43419</v>
-      </c>
-      <c r="AD5" s="59">
-        <v>481.24</v>
-      </c>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="76"/>
-      <c r="AG5" s="76">
-        <v>221611.68</v>
-      </c>
-      <c r="AH5" s="76">
-        <v>90611.68</v>
-      </c>
-      <c r="AI5" s="76"/>
-      <c r="AJ5" s="76">
-        <v>131000</v>
-      </c>
-      <c r="AK5" s="76">
-        <v>3300</v>
-      </c>
-      <c r="AL5" s="59">
-        <v>66.686629999999994</v>
-      </c>
-      <c r="AM5" s="76">
-        <v>750</v>
-      </c>
-      <c r="AN5" s="76">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="76">
+      <c r="AN16" s="67">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="67">
         <v>177.89999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="60">
-        <v>5</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56">
-        <v>360</v>
-      </c>
-      <c r="J6" s="58">
-        <v>131000</v>
-      </c>
-      <c r="K6" s="56">
-        <v>3.75</v>
-      </c>
-      <c r="L6" s="61">
-        <v>40969</v>
-      </c>
-      <c r="M6" s="61">
-        <v>40969</v>
-      </c>
-      <c r="N6" s="61">
-        <v>41000</v>
-      </c>
-      <c r="O6" s="76">
-        <v>606.70000000000005</v>
-      </c>
-      <c r="P6" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="56">
-        <v>606.67999999999995</v>
-      </c>
-      <c r="R6" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" s="59">
-        <v>606.70000000000005</v>
-      </c>
-      <c r="T6" s="76">
-        <v>40.39</v>
-      </c>
-      <c r="U6" s="59">
-        <v>962.48</v>
-      </c>
-      <c r="V6" s="61">
-        <v>43435</v>
-      </c>
-      <c r="W6" s="61">
-        <v>43070</v>
-      </c>
-      <c r="X6" s="57">
-        <v>750</v>
-      </c>
-      <c r="Y6" s="76">
-        <v>606.67999999999995</v>
-      </c>
-      <c r="Z6" s="76">
-        <v>221683.57</v>
-      </c>
-      <c r="AA6" s="76">
-        <v>606.70000000000005</v>
-      </c>
-      <c r="AB6" s="76">
-        <v>40.39</v>
-      </c>
-      <c r="AC6" s="61">
-        <v>43435</v>
-      </c>
-      <c r="AD6" s="59">
-        <v>747.09</v>
-      </c>
-      <c r="AE6" s="59">
-        <v>3.9319999999999999</v>
-      </c>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76">
-        <v>221683.57</v>
-      </c>
-      <c r="AH6" s="76">
-        <v>90683.57</v>
-      </c>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="76">
-        <v>131000</v>
-      </c>
-      <c r="AK6" s="76">
-        <v>3300</v>
-      </c>
-      <c r="AL6" s="59">
-        <v>66.725999999999999</v>
-      </c>
-      <c r="AM6" s="57">
-        <v>750</v>
-      </c>
-      <c r="AN6" s="76">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="57">
-        <v>355.78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="60">
-        <v>6</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="56">
-        <v>2</v>
-      </c>
-      <c r="I7" s="56">
-        <v>180</v>
-      </c>
-      <c r="J7" s="58">
-        <v>131000</v>
-      </c>
-      <c r="K7" s="56">
-        <v>3.75</v>
-      </c>
-      <c r="L7" s="61">
-        <v>40969</v>
-      </c>
-      <c r="M7" s="61">
-        <v>40969</v>
-      </c>
-      <c r="N7" s="61">
-        <v>41030</v>
-      </c>
-      <c r="O7" s="76">
-        <v>1214.4100000000001</v>
-      </c>
-      <c r="P7" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="56">
-        <v>1214.2</v>
-      </c>
-      <c r="R7" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="59">
-        <v>1214.4100000000001</v>
-      </c>
-      <c r="T7" s="76">
-        <v>80.78</v>
-      </c>
-      <c r="U7" s="59">
-        <v>1925.97</v>
-      </c>
-      <c r="V7" s="61">
-        <v>43466</v>
-      </c>
-      <c r="W7" s="61">
-        <v>43101</v>
-      </c>
-      <c r="X7" s="76">
-        <v>790.39</v>
-      </c>
-      <c r="Y7" s="76">
-        <v>1214.2</v>
-      </c>
-      <c r="Z7" s="76">
-        <v>221824.79</v>
-      </c>
-      <c r="AA7" s="76">
-        <v>1214.4100000000001</v>
-      </c>
-      <c r="AB7" s="76">
-        <v>80.78</v>
-      </c>
-      <c r="AC7" s="61">
-        <v>43405</v>
-      </c>
-      <c r="AD7" s="59">
-        <v>1495.19</v>
-      </c>
-      <c r="AE7" s="59">
-        <v>3.9295</v>
-      </c>
-      <c r="AF7" s="76"/>
-      <c r="AG7" s="76">
-        <v>221824.79</v>
-      </c>
-      <c r="AH7" s="76">
-        <v>97868.29</v>
-      </c>
-      <c r="AI7" s="76"/>
-      <c r="AJ7" s="76">
-        <v>131000</v>
-      </c>
-      <c r="AK7" s="76">
-        <v>3300</v>
-      </c>
-      <c r="AL7" s="59">
-        <v>66.864999999999995</v>
-      </c>
-      <c r="AM7" s="76">
-        <v>790.39</v>
-      </c>
-      <c r="AN7" s="76">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="76">
-        <v>711.56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="60">
-        <v>7</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56">
-        <v>360</v>
-      </c>
-      <c r="J8" s="58">
-        <v>131000</v>
-      </c>
-      <c r="K8" s="56">
-        <v>3.75</v>
-      </c>
-      <c r="L8" s="61">
-        <v>40969</v>
-      </c>
-      <c r="M8" s="61">
-        <v>40969</v>
-      </c>
-      <c r="N8" s="61">
-        <v>40983</v>
-      </c>
-      <c r="O8" s="76">
-        <v>303.33999999999997</v>
-      </c>
-      <c r="P8" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="56">
-        <v>301.02999999999997</v>
-      </c>
-      <c r="R8" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="59">
-        <v>606.67999999999995</v>
-      </c>
-      <c r="T8" s="76">
-        <v>18.64</v>
-      </c>
-      <c r="U8" s="59">
-        <v>467.55</v>
-      </c>
-      <c r="V8" s="61">
-        <v>42943</v>
-      </c>
-      <c r="W8" s="61">
-        <v>42649</v>
-      </c>
-      <c r="X8" s="76">
-        <v>798.43</v>
-      </c>
-      <c r="Y8" s="76">
-        <v>301.02999999999997</v>
-      </c>
-      <c r="Z8" s="76">
-        <v>207380.43</v>
-      </c>
-      <c r="AA8" s="76">
-        <v>303.33999999999997</v>
-      </c>
-      <c r="AB8" s="76">
-        <v>18.64</v>
-      </c>
-      <c r="AC8" s="61">
-        <v>42943</v>
-      </c>
-      <c r="AD8" s="59">
-        <v>467.55</v>
-      </c>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76">
-        <v>207380.43</v>
-      </c>
-      <c r="AH8" s="76">
-        <v>76380.429999999993</v>
-      </c>
-      <c r="AI8" s="76"/>
-      <c r="AJ8" s="76">
-        <v>131000</v>
-      </c>
-      <c r="AK8" s="76">
-        <v>3300</v>
-      </c>
-      <c r="AL8" s="59">
-        <v>56.298999999999999</v>
-      </c>
-      <c r="AM8" s="76">
-        <v>798.43</v>
-      </c>
-      <c r="AN8" s="76">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="76">
-        <v>164.20999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="60">
-        <v>8</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56">
-        <v>360</v>
-      </c>
-      <c r="J9" s="58">
-        <v>131000</v>
-      </c>
-      <c r="K9" s="56">
-        <v>3.75</v>
-      </c>
-      <c r="L9" s="61">
-        <v>40969</v>
-      </c>
-      <c r="M9" s="61">
-        <v>40969</v>
-      </c>
-      <c r="N9" s="61">
-        <v>40983</v>
-      </c>
-      <c r="O9" s="76">
-        <v>303.33999999999997</v>
-      </c>
-      <c r="P9" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="56">
-        <v>0</v>
-      </c>
-      <c r="R9" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="59">
-        <v>606.67999999999995</v>
-      </c>
-      <c r="T9" s="76">
-        <v>20.2</v>
-      </c>
-      <c r="U9" s="59">
-        <v>481.24</v>
-      </c>
-      <c r="V9" s="61">
-        <v>43419</v>
-      </c>
-      <c r="W9" s="61">
-        <v>43054</v>
-      </c>
-      <c r="X9" s="76">
-        <v>750</v>
-      </c>
-      <c r="Y9" s="76">
-        <v>127.06</v>
-      </c>
-      <c r="Z9" s="76">
-        <v>221480.72</v>
-      </c>
-      <c r="AA9" s="76">
-        <v>303.33999999999997</v>
-      </c>
-      <c r="AB9" s="76">
-        <v>20.2</v>
-      </c>
-      <c r="AC9" s="61">
-        <v>43419</v>
-      </c>
-      <c r="AD9" s="59">
-        <v>481.24</v>
-      </c>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76">
-        <v>221480.72</v>
-      </c>
-      <c r="AH9" s="76">
-        <v>90480.72</v>
-      </c>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="76">
-        <v>131000</v>
-      </c>
-      <c r="AK9" s="76">
-        <v>3300</v>
-      </c>
-      <c r="AL9" s="59">
-        <v>66.586600000000004</v>
-      </c>
-      <c r="AM9" s="76">
-        <v>750</v>
-      </c>
-      <c r="AN9" s="76">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="76">
-        <v>177.89999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="60">
-        <v>9</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56">
-        <v>360</v>
-      </c>
-      <c r="J10" s="58">
-        <v>131000</v>
-      </c>
-      <c r="K10" s="56">
-        <v>3.75</v>
-      </c>
-      <c r="L10" s="61">
-        <v>40969</v>
-      </c>
-      <c r="M10" s="61">
-        <v>40969</v>
-      </c>
-      <c r="N10" s="61">
-        <v>41000</v>
-      </c>
-      <c r="O10" s="76">
-        <v>610.79</v>
-      </c>
-      <c r="P10" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="56">
-        <v>610.55999999999995</v>
-      </c>
-      <c r="R10" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="59">
-        <v>610.79</v>
-      </c>
-      <c r="T10" s="76">
-        <v>40.39</v>
-      </c>
-      <c r="U10" s="59">
-        <v>751.18</v>
-      </c>
-      <c r="V10" s="61">
-        <v>43435</v>
-      </c>
-      <c r="W10" s="61">
-        <v>43070</v>
-      </c>
-      <c r="X10" s="57">
-        <v>750</v>
-      </c>
-      <c r="Y10" s="76">
-        <v>610.55999999999995</v>
-      </c>
-      <c r="Z10" s="76">
-        <v>223155.76</v>
-      </c>
-      <c r="AA10" s="76">
-        <v>610.79</v>
-      </c>
-      <c r="AB10" s="76">
-        <v>40.39</v>
-      </c>
-      <c r="AC10" s="61">
-        <v>43435</v>
-      </c>
-      <c r="AD10" s="59">
-        <v>751.18</v>
-      </c>
-      <c r="AE10" s="59">
-        <v>3.9870999999999999</v>
-      </c>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76">
-        <v>223155.76</v>
-      </c>
-      <c r="AH10" s="76">
-        <v>92155.76</v>
-      </c>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76">
-        <v>131000</v>
-      </c>
-      <c r="AK10" s="76">
-        <v>1200</v>
-      </c>
-      <c r="AL10" s="59">
-        <v>67.850499999999997</v>
-      </c>
-      <c r="AM10" s="57">
-        <v>750</v>
-      </c>
-      <c r="AN10" s="76">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="57">
-        <v>355.78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="60">
-        <v>10</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="56">
-        <v>2</v>
-      </c>
-      <c r="I11" s="56">
-        <v>360</v>
-      </c>
-      <c r="J11" s="58">
-        <v>131000</v>
-      </c>
-      <c r="K11" s="56">
-        <v>3.75</v>
-      </c>
-      <c r="L11" s="61">
-        <v>40969</v>
-      </c>
-      <c r="M11" s="61">
-        <v>40969</v>
-      </c>
-      <c r="N11" s="61">
-        <v>41030</v>
-      </c>
-      <c r="O11" s="76">
-        <v>1222.5999999999999</v>
-      </c>
-      <c r="P11" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="56">
-        <v>1222.53</v>
-      </c>
-      <c r="R11" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="S11" s="59">
-        <v>1222.5999999999999</v>
-      </c>
-      <c r="T11" s="76">
-        <v>80.78</v>
-      </c>
-      <c r="U11" s="59">
-        <v>1503.38</v>
-      </c>
-      <c r="V11" s="61">
-        <v>43466</v>
-      </c>
-      <c r="W11" s="61">
-        <v>43101</v>
-      </c>
-      <c r="X11" s="76">
-        <v>790.39</v>
-      </c>
-      <c r="Y11" s="76">
-        <v>1222.53</v>
-      </c>
-      <c r="Z11" s="76">
-        <v>223299.13</v>
-      </c>
-      <c r="AA11" s="76">
-        <v>1222.5999999999999</v>
-      </c>
-      <c r="AB11" s="76">
-        <v>80.78</v>
-      </c>
-      <c r="AC11" s="61">
-        <v>43435</v>
-      </c>
-      <c r="AD11" s="59">
-        <v>1503.38</v>
-      </c>
-      <c r="AE11" s="59">
-        <v>3.9847000000000001</v>
-      </c>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="76">
-        <v>223299.13</v>
-      </c>
-      <c r="AH11" s="76">
-        <v>92299.13</v>
-      </c>
-      <c r="AI11" s="76"/>
-      <c r="AJ11" s="76">
-        <v>131000</v>
-      </c>
-      <c r="AK11" s="76">
-        <v>1200</v>
-      </c>
-      <c r="AL11" s="59">
-        <v>67.991</v>
-      </c>
-      <c r="AM11" s="76">
-        <v>790.39</v>
-      </c>
-      <c r="AN11" s="76">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="76">
-        <v>711.56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="60">
-        <v>11</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56">
-        <v>360</v>
-      </c>
-      <c r="J12" s="58">
-        <v>131000</v>
-      </c>
-      <c r="K12" s="56">
-        <v>3.75</v>
-      </c>
-      <c r="L12" s="61">
-        <v>40969</v>
-      </c>
-      <c r="M12" s="61">
-        <v>40969</v>
-      </c>
-      <c r="N12" s="61">
-        <v>40983</v>
-      </c>
-      <c r="O12" s="76">
-        <v>303.33999999999997</v>
-      </c>
-      <c r="P12" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="56">
-        <v>269.13</v>
-      </c>
-      <c r="R12" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="S12" s="59">
-        <v>606.67999999999995</v>
-      </c>
-      <c r="T12" s="76">
-        <v>20.2</v>
-      </c>
-      <c r="U12" s="59">
-        <v>747.07</v>
-      </c>
-      <c r="V12" s="61">
-        <v>42985</v>
-      </c>
-      <c r="W12" s="61">
-        <v>42691</v>
-      </c>
-      <c r="X12" s="76">
-        <v>750</v>
-      </c>
-      <c r="Y12" s="76">
-        <v>269.13</v>
-      </c>
-      <c r="Z12" s="76">
-        <v>209527.83</v>
-      </c>
-      <c r="AA12" s="76">
-        <v>303.33999999999997</v>
-      </c>
-      <c r="AB12" s="76">
-        <v>18.64</v>
-      </c>
-      <c r="AC12" s="61">
-        <v>42985</v>
-      </c>
-      <c r="AD12" s="59">
-        <v>467.55</v>
-      </c>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76">
-        <v>209527.83</v>
-      </c>
-      <c r="AH12" s="76">
-        <v>78527.83</v>
-      </c>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="76">
-        <v>131000</v>
-      </c>
-      <c r="AK12" s="76">
-        <v>1200</v>
-      </c>
-      <c r="AL12" s="59">
-        <v>57.895899999999997</v>
-      </c>
-      <c r="AM12" s="76">
-        <v>798.43</v>
-      </c>
-      <c r="AN12" s="76">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="76">
-        <v>164.20999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="60">
-        <v>12</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56">
-        <v>360</v>
-      </c>
-      <c r="J13" s="58">
-        <v>131000</v>
-      </c>
-      <c r="K13" s="56">
-        <v>3.75</v>
-      </c>
-      <c r="L13" s="61">
-        <v>40969</v>
-      </c>
-      <c r="M13" s="61">
-        <v>40969</v>
-      </c>
-      <c r="N13" s="61">
-        <v>40983</v>
-      </c>
-      <c r="O13" s="76">
-        <v>303.33999999999997</v>
-      </c>
-      <c r="P13" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="56">
-        <v>0</v>
-      </c>
-      <c r="R13" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="S13" s="59">
-        <v>606.67999999999995</v>
-      </c>
-      <c r="T13" s="76">
-        <v>20.2</v>
-      </c>
-      <c r="U13" s="59">
-        <v>747.07</v>
-      </c>
-      <c r="V13" s="61">
-        <v>42372</v>
-      </c>
-      <c r="W13" s="61">
-        <v>43475</v>
-      </c>
-      <c r="X13" s="76">
-        <v>750</v>
-      </c>
-      <c r="Y13" s="76">
-        <v>127.06</v>
-      </c>
-      <c r="Z13" s="76">
-        <v>224314.74</v>
-      </c>
-      <c r="AA13" s="76">
-        <v>303.33999999999997</v>
-      </c>
-      <c r="AB13" s="76">
-        <v>20.2</v>
-      </c>
-      <c r="AC13" s="61">
-        <v>43480</v>
-      </c>
-      <c r="AD13" s="59">
-        <v>481.24</v>
-      </c>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="76">
-        <v>224314.74</v>
-      </c>
-      <c r="AH13" s="76">
-        <v>93314.74</v>
-      </c>
-      <c r="AI13" s="76"/>
-      <c r="AJ13" s="76">
-        <v>131000</v>
-      </c>
-      <c r="AK13" s="76">
-        <v>1200</v>
-      </c>
-      <c r="AL13" s="59">
-        <v>68.68835</v>
-      </c>
-      <c r="AM13" s="76">
-        <v>750</v>
-      </c>
-      <c r="AN13" s="76">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="76">
-        <v>177.89999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="60">
-        <v>13</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56">
-        <v>360</v>
-      </c>
-      <c r="J14" s="58">
-        <v>131000</v>
-      </c>
-      <c r="K14" s="56">
-        <v>3.75</v>
-      </c>
-      <c r="L14" s="61">
-        <v>40969</v>
-      </c>
-      <c r="M14" s="61">
-        <v>40969</v>
-      </c>
-      <c r="N14" s="61">
-        <v>41000</v>
-      </c>
-      <c r="O14" s="76">
-        <v>606.67999999999995</v>
-      </c>
-      <c r="P14" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="56">
-        <v>0</v>
-      </c>
-      <c r="R14" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="59">
-        <v>606.67999999999995</v>
-      </c>
-      <c r="T14" s="76">
-        <v>40.39</v>
-      </c>
-      <c r="U14" s="59">
-        <v>747.07</v>
-      </c>
-      <c r="V14" s="61">
-        <v>43405</v>
-      </c>
-      <c r="W14" s="61">
-        <v>43070</v>
-      </c>
-      <c r="X14" s="57">
-        <v>750</v>
-      </c>
-      <c r="Y14" s="76">
-        <v>610.55999999999995</v>
-      </c>
-      <c r="Z14" s="76">
-        <v>221636</v>
-      </c>
-      <c r="AA14" s="76">
-        <v>606.67999999999995</v>
-      </c>
-      <c r="AB14" s="76">
-        <v>40.39</v>
-      </c>
-      <c r="AC14" s="61">
-        <v>43405</v>
-      </c>
-      <c r="AD14" s="59">
-        <v>747.06999999999994</v>
-      </c>
-      <c r="AE14" s="59">
-        <v>3.9297</v>
-      </c>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76">
-        <v>221636</v>
-      </c>
-      <c r="AH14" s="76">
-        <v>90636.49</v>
-      </c>
-      <c r="AI14" s="76">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="76">
-        <v>131000</v>
-      </c>
-      <c r="AK14" s="76">
-        <v>1200</v>
-      </c>
-      <c r="AL14" s="59">
-        <v>66.72</v>
-      </c>
-      <c r="AM14" s="57">
-        <v>750</v>
-      </c>
-      <c r="AN14" s="76">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="57">
-        <v>355.78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="60">
-        <v>14</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="56">
-        <v>2</v>
-      </c>
-      <c r="I15" s="56">
-        <v>180</v>
-      </c>
-      <c r="J15" s="58">
-        <v>131000</v>
-      </c>
-      <c r="K15" s="56">
-        <v>3.75</v>
-      </c>
-      <c r="L15" s="61">
-        <v>40969</v>
-      </c>
-      <c r="M15" s="61">
-        <v>40969</v>
-      </c>
-      <c r="N15" s="61">
-        <v>41030</v>
-      </c>
-      <c r="O15" s="76">
-        <v>1214.3900000000001</v>
-      </c>
-      <c r="P15" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="56">
-        <v>1213.26</v>
-      </c>
-      <c r="R15" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="59">
-        <v>1214.3900000000001</v>
-      </c>
-      <c r="T15" s="76">
-        <v>80.78</v>
-      </c>
-      <c r="U15" s="59">
-        <v>1495.17</v>
-      </c>
-      <c r="V15" s="61">
-        <v>43405</v>
-      </c>
-      <c r="W15" s="61">
-        <v>43101</v>
-      </c>
-      <c r="X15" s="76">
-        <v>790.39</v>
-      </c>
-      <c r="Y15" s="76">
-        <v>1222.53</v>
-      </c>
-      <c r="Z15" s="76">
-        <v>221820.27</v>
-      </c>
-      <c r="AA15" s="76">
-        <v>1214.3900000000001</v>
-      </c>
-      <c r="AB15" s="76">
-        <v>80.78</v>
-      </c>
-      <c r="AC15" s="61">
-        <v>43405</v>
-      </c>
-      <c r="AD15" s="59">
-        <v>747.06999999999994</v>
-      </c>
-      <c r="AE15" s="59">
-        <v>3.9293999999999998</v>
-      </c>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="76">
-        <v>221820.27</v>
-      </c>
-      <c r="AH15" s="76">
-        <v>90820.4</v>
-      </c>
-      <c r="AI15" s="76">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="76">
-        <v>131000</v>
-      </c>
-      <c r="AK15" s="76">
-        <v>1200</v>
-      </c>
-      <c r="AL15" s="59">
-        <v>66.861000000000004</v>
-      </c>
-      <c r="AM15" s="76">
-        <v>790.39</v>
-      </c>
-      <c r="AN15" s="76">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="76">
-        <v>711.56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="60">
-        <v>15</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56">
-        <v>720</v>
-      </c>
-      <c r="J16" s="58">
-        <v>131000</v>
-      </c>
-      <c r="K16" s="56">
-        <v>3.75</v>
-      </c>
-      <c r="L16" s="61">
-        <v>40969</v>
-      </c>
-      <c r="M16" s="61">
-        <v>40969</v>
-      </c>
-      <c r="N16" s="61">
-        <v>40983</v>
-      </c>
-      <c r="O16" s="76">
-        <v>303.20999999999998</v>
-      </c>
-      <c r="P16" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="56">
-        <v>0</v>
-      </c>
-      <c r="R16" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="S16" s="59">
-        <v>303.20999999999998</v>
-      </c>
-      <c r="T16" s="76">
-        <v>20.2</v>
-      </c>
-      <c r="U16" s="59">
-        <v>373.41</v>
-      </c>
-      <c r="V16" s="61">
-        <v>43419</v>
-      </c>
-      <c r="W16" s="61">
-        <v>43054</v>
-      </c>
-      <c r="X16" s="76">
-        <v>750</v>
-      </c>
-      <c r="Y16" s="76">
-        <v>127.06</v>
-      </c>
-      <c r="Z16" s="76">
-        <v>221563.4</v>
-      </c>
-      <c r="AA16" s="76">
-        <v>303.20999999999998</v>
-      </c>
-      <c r="AB16" s="76">
-        <v>20.2</v>
-      </c>
-      <c r="AC16" s="61">
-        <v>43419</v>
-      </c>
-      <c r="AD16" s="59">
-        <v>303.20999999999998</v>
-      </c>
-      <c r="AE16" s="59">
-        <v>3.9318</v>
-      </c>
-      <c r="AF16" s="76"/>
-      <c r="AG16" s="76">
-        <v>221563.4</v>
-      </c>
-      <c r="AH16" s="76">
-        <v>90566.94</v>
-      </c>
-      <c r="AI16" s="76">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="76">
-        <v>131000</v>
-      </c>
-      <c r="AK16" s="76">
-        <v>1200</v>
-      </c>
-      <c r="AL16" s="59">
-        <v>66.652000000000001</v>
-      </c>
-      <c r="AM16" s="76">
-        <v>750</v>
-      </c>
-      <c r="AN16" s="76">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="76">
-        <v>177.89999999999998</v>
-      </c>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I17" s="6"/>
+      <c r="J17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9101,23 +8539,23 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="A1:L6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="12" width="4.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="22" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9125,13 +8563,13 @@
         <v>33</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>140</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>142</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>51</v>
@@ -9163,13 +8601,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -9186,7 +8624,7 @@
       <c r="I2" s="3">
         <v>747.06999999999994</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="36">
         <v>220303.13</v>
       </c>
       <c r="K2" s="3">
@@ -9201,13 +8639,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -9220,7 +8658,7 @@
         <v>42372</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="38"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="3"/>
       <c r="L3" s="1"/>
     </row>
@@ -9229,13 +8667,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -9248,7 +8686,7 @@
         <v>42372</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="38"/>
+      <c r="J4" s="36"/>
       <c r="K4" s="3"/>
       <c r="L4" s="1"/>
     </row>
@@ -9257,13 +8695,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -9276,7 +8714,7 @@
         <v>42372</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="38"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="3"/>
       <c r="L5" s="1"/>
     </row>
@@ -9285,13 +8723,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -9304,7 +8742,7 @@
         <v>42372</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="38"/>
+      <c r="J6" s="36"/>
       <c r="K6" s="3"/>
       <c r="L6" s="1"/>
     </row>
@@ -9324,112 +8762,112 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="E1" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="G1" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="H1" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="I1" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="J1" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="K1" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="L1" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="M1" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="N1" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="O1" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="P1" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="Q1" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="R1" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="Q1" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="R1" s="41" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="42">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="41">
         <v>36</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="40">
         <v>12</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="40">
         <v>2</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="40">
         <v>1</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="40">
         <v>2</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="40">
         <v>1</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="40">
         <v>1.875</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="40">
         <v>11.25</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="40">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="40">
         <v>2.75</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9444,15 +8882,15 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="22" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/SpecFramework/FeatureFiles/DataResources/TridTestDataWithAllScenarios.xlsx
+++ b/SpecFramework/FeatureFiles/DataResources/TridTestDataWithAllScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="599" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="599" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PrepaidCharges" sheetId="8" r:id="rId1"/>
@@ -6954,7 +6954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -9922,8 +9922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
